--- a/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>ODC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E8" s="3">
         <v>71100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>70100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>70900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>136000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>66100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>65600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>64800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>68900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>66600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>65800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>64700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>65200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>66600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E9" s="3">
         <v>51200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>52700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>54100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>104600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>50100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>50000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>47200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>49700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>47000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>46000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>45900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>16800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>16000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>15600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>20700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E17" s="3">
         <v>67000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>65900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>68600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>132200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>65100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>62700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>61600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>62400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>62900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>61000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>59600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>63600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E18" s="3">
         <v>4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>4500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E21" s="3">
         <v>7600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1315,25 +1355,25 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1348,107 +1388,116 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E23" s="3">
         <v>4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E26" s="3">
         <v>3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E27" s="3">
         <v>3400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1655,20 +1716,20 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>1100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-5100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-4500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E33" s="3">
         <v>3400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E35" s="3">
         <v>3400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,196 +2140,209 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E41" s="3">
         <v>19300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>7100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>21900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>18100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>23600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>18700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E43" s="3">
         <v>36300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>35500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>35900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>38300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>39900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>33600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32800</v>
-      </c>
-      <c r="N43" s="3">
-        <v>32000</v>
       </c>
       <c r="O43" s="3">
         <v>32000</v>
       </c>
       <c r="P43" s="3">
+        <v>32000</v>
+      </c>
+      <c r="Q43" s="3">
         <v>31000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E44" s="3">
         <v>23800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>24200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>26700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>28100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>25400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>22500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>23400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>22800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>22600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>23800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>23200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>23600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2251,93 +2350,99 @@
         <v>6200</v>
       </c>
       <c r="E45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F45" s="3">
         <v>7800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E46" s="3">
         <v>85500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>89300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>86800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>82300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>85200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>83000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>87100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>94200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>88900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>94200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>98100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>92800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>86000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E48" s="3">
         <v>99200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>90800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>87100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>86200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>87300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>86700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>84800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>84300</v>
       </c>
       <c r="L48" s="3">
         <v>84300</v>
       </c>
       <c r="M48" s="3">
+        <v>84300</v>
+      </c>
+      <c r="N48" s="3">
         <v>84000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>81500</v>
       </c>
       <c r="O48" s="3">
         <v>81500</v>
       </c>
       <c r="P48" s="3">
+        <v>81500</v>
+      </c>
+      <c r="Q48" s="3">
         <v>81700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E49" s="3">
         <v>12200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>12300</v>
       </c>
       <c r="F49" s="3">
         <v>12300</v>
       </c>
       <c r="G49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="H49" s="3">
         <v>12400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E52" s="3">
         <v>12900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>209100</v>
+      </c>
+      <c r="E54" s="3">
         <v>209700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>205200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>198500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>193100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>197000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>194700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>198000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>205500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>206900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>212600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>212100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>206600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E57" s="3">
         <v>7900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2821,10 +2955,10 @@
         <v>3100</v>
       </c>
       <c r="J58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K58" s="3">
         <v>9100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>3100</v>
       </c>
       <c r="L58" s="3">
         <v>3100</v>
@@ -2844,102 +2978,111 @@
       <c r="Q58" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E59" s="3">
         <v>19000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E60" s="3">
         <v>30000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>32600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>35700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>30900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>35700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>33000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>29500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>27300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2947,10 +3090,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>3100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>3000</v>
       </c>
       <c r="G61" s="3">
         <v>3000</v>
@@ -2959,7 +3102,7 @@
         <v>3000</v>
       </c>
       <c r="I61" s="3">
-        <v>6100</v>
+        <v>3000</v>
       </c>
       <c r="J61" s="3">
         <v>6100</v>
@@ -2971,69 +3114,75 @@
         <v>6100</v>
       </c>
       <c r="M61" s="3">
-        <v>9200</v>
+        <v>6100</v>
       </c>
       <c r="N61" s="3">
         <v>9200</v>
       </c>
       <c r="O61" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="P61" s="3">
         <v>9100</v>
       </c>
       <c r="Q61" s="3">
+        <v>9100</v>
+      </c>
+      <c r="R61" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E62" s="3">
         <v>41800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>34000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>26400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>27200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>39800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>45000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>44400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>47300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>47400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>46800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E66" s="3">
         <v>71700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>69700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>60900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>60400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>65200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>69000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>79300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>78800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>86500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>89300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>86100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>83300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>169600</v>
+      </c>
+      <c r="E72" s="3">
         <v>166500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>164800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>162700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>158800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>158200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>158900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>157900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>153600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>156200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>154700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>155000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>153200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>150500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>149900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>147100</v>
+      </c>
+      <c r="E76" s="3">
         <v>138000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>135600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>137600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>132800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>131800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>131900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>129000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>126300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>128100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>126000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>122800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>120500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>116800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E81" s="3">
         <v>3400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3839,16 +4038,16 @@
         <v>3500</v>
       </c>
       <c r="F83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G83" s="3">
         <v>3300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3200</v>
       </c>
       <c r="J83" s="3">
         <v>3200</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E89" s="3">
         <v>6700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4391,16 +4625,16 @@
         <v>-1800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="F96" s="3">
         <v>-1700</v>
       </c>
       <c r="G96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1600</v>
       </c>
       <c r="I96" s="3">
         <v>-1600</v>
@@ -4415,7 +4649,7 @@
         <v>-1600</v>
       </c>
       <c r="M96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="N96" s="3">
         <v>-1500</v>
@@ -4427,10 +4661,13 @@
         <v>-1500</v>
       </c>
       <c r="Q96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-1700</v>
       </c>
       <c r="F100" s="3">
         <v>-1700</v>
       </c>
       <c r="G100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H100" s="3">
         <v>-6500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4626,89 +4875,95 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>ODC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>71000</v>
+        <v>76300</v>
       </c>
       <c r="E8" s="3">
+        <v>142100</v>
+      </c>
+      <c r="F8" s="3">
         <v>71100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>70100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>70900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>136000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>66100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>65600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>64800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>68900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>66600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>65800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>64700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>65200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>66600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>52000</v>
+        <v>54900</v>
       </c>
       <c r="E9" s="3">
+        <v>103200</v>
+      </c>
+      <c r="F9" s="3">
         <v>51200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>52700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>54100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>104600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>50100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>50000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>49200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>47700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>49700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>47000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>46000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>45900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19000</v>
+        <v>21400</v>
       </c>
       <c r="E10" s="3">
+        <v>38900</v>
+      </c>
+      <c r="F10" s="3">
         <v>19900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>16800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>20700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>132100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>67000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>65900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>68600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>132200</v>
+      </c>
+      <c r="J17" s="3">
         <v>65100</v>
       </c>
-      <c r="E17" s="3">
-        <v>67000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>65900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>68600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>132200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>65100</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>62700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>62400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>62900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>61000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>59600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>63600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="E18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F18" s="3">
         <v>4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1261,93 +1294,99 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>4500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="E21" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F21" s="3">
         <v>7600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1355,28 +1394,28 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1391,113 +1430,122 @@
         <v>200</v>
       </c>
       <c r="Q22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="E23" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F23" s="3">
         <v>4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>800</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>800</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P24" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
-        <v>600</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>800</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>800</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>600</v>
-      </c>
-      <c r="P24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1555,49 +1606,52 @@
         <v>4700</v>
       </c>
       <c r="E26" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F26" s="3">
         <v>3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1605,49 +1659,52 @@
         <v>4600</v>
       </c>
       <c r="E27" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F27" s="3">
         <v>3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1719,20 +1779,20 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>1100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-5100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1861,43 +1930,46 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-4500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1905,49 +1977,52 @@
         <v>4600</v>
       </c>
       <c r="E33" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F33" s="3">
         <v>3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2005,104 +2083,110 @@
         <v>4600</v>
       </c>
       <c r="E35" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F35" s="3">
         <v>3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E41" s="3">
         <v>21600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2202,247 +2291,262 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>7100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>21900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>18100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>23600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>18700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E43" s="3">
         <v>35700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>36300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>35500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>35900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>38300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>39900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>33600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>32800</v>
-      </c>
-      <c r="O43" s="3">
-        <v>32000</v>
       </c>
       <c r="P43" s="3">
         <v>32000</v>
       </c>
       <c r="Q43" s="3">
+        <v>32000</v>
+      </c>
+      <c r="R43" s="3">
         <v>31000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E44" s="3">
         <v>22700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>24200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>26700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>28100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>25400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>22500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>23400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>22600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>22800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>22600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>23800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>23200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>23600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6200</v>
+        <v>7600</v>
       </c>
       <c r="E45" s="3">
         <v>6200</v>
       </c>
       <c r="F45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G45" s="3">
         <v>7800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>94100</v>
+      </c>
+      <c r="E46" s="3">
         <v>86200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>85500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>89300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>86800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>82300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>85200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>83000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>87100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>94200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>88900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>94200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>98100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>92800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>86000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E48" s="3">
         <v>98400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>99200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>90800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>87100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>86200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>87300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>86700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>84800</v>
-      </c>
-      <c r="L48" s="3">
-        <v>84300</v>
       </c>
       <c r="M48" s="3">
         <v>84300</v>
       </c>
       <c r="N48" s="3">
+        <v>84300</v>
+      </c>
+      <c r="O48" s="3">
         <v>84000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>81500</v>
       </c>
       <c r="P48" s="3">
         <v>81500</v>
       </c>
       <c r="Q48" s="3">
+        <v>81500</v>
+      </c>
+      <c r="R48" s="3">
         <v>81700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E49" s="3">
         <v>12000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>12300</v>
       </c>
       <c r="G49" s="3">
         <v>12300</v>
       </c>
       <c r="H49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="I49" s="3">
         <v>12400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>13800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E52" s="3">
         <v>12500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E54" s="3">
         <v>209100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>209700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>205200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>198500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>193100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>197000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>194700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>198000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>205500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>206900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>212600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>212100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>206600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>200100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E57" s="3">
         <v>9600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2958,10 +3091,10 @@
         <v>3100</v>
       </c>
       <c r="K58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L58" s="3">
         <v>9100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>3100</v>
       </c>
       <c r="M58" s="3">
         <v>3100</v>
@@ -2981,108 +3114,117 @@
       <c r="R58" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E59" s="3">
         <v>20900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E60" s="3">
         <v>33500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>32600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>31100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>35700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>30900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>35700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>33300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>33000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>32800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>29500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3093,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>3100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>3000</v>
       </c>
       <c r="H61" s="3">
         <v>3000</v>
@@ -3105,7 +3247,7 @@
         <v>3000</v>
       </c>
       <c r="J61" s="3">
-        <v>6100</v>
+        <v>3000</v>
       </c>
       <c r="K61" s="3">
         <v>6100</v>
@@ -3117,72 +3259,78 @@
         <v>6100</v>
       </c>
       <c r="N61" s="3">
-        <v>9200</v>
+        <v>6100</v>
       </c>
       <c r="O61" s="3">
         <v>9200</v>
       </c>
       <c r="P61" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="Q61" s="3">
         <v>9100</v>
       </c>
       <c r="R61" s="3">
+        <v>9100</v>
+      </c>
+      <c r="S61" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E62" s="3">
         <v>28600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>41800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>34000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>26400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>39800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>45000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>44400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>47300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>47400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>46800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E66" s="3">
         <v>62000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>71700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>69700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>60900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>60400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>65200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>69000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>79300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>78800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>86500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>89300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>86100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>83300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>172500</v>
+      </c>
+      <c r="E72" s="3">
         <v>169600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>166500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>164800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>162700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>158800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>158200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>158900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>157900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>153600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>156200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>154700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>155000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>153200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>150500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>149900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>146800</v>
+      </c>
+      <c r="E76" s="3">
         <v>147100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>138000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>135600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>137600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>132800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>131800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>131900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>129000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>126300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>128100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>126000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>122800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>120500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>116800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3965,49 +4159,52 @@
         <v>4600</v>
       </c>
       <c r="E81" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F81" s="3">
         <v>3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,22 +4233,22 @@
         <v>3500</v>
       </c>
       <c r="E83" s="3">
-        <v>3500</v>
+        <v>6900</v>
       </c>
       <c r="F83" s="3">
         <v>3500</v>
       </c>
       <c r="G83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H83" s="3">
         <v>3300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3200</v>
       </c>
       <c r="K83" s="3">
         <v>3200</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="E89" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F89" s="3">
         <v>6700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3400</v>
+        <v>-3600</v>
       </c>
       <c r="E91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="E94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4625,19 +4858,19 @@
         <v>-1800</v>
       </c>
       <c r="E96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1800</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-1700</v>
       </c>
       <c r="G96" s="3">
         <v>-1700</v>
       </c>
       <c r="H96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1600</v>
       </c>
       <c r="J96" s="3">
         <v>-1600</v>
@@ -4652,7 +4885,7 @@
         <v>-1600</v>
       </c>
       <c r="N96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="O96" s="3">
         <v>-1500</v>
@@ -4664,10 +4897,13 @@
         <v>-1500</v>
       </c>
       <c r="R96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1800</v>
+        <v>-5700</v>
       </c>
       <c r="E100" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-1700</v>
       </c>
       <c r="G100" s="3">
         <v>-1700</v>
       </c>
       <c r="H100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I100" s="3">
         <v>-6500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2300</v>
+        <v>-1000</v>
       </c>
       <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>ODC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E8" s="3">
         <v>76300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>142100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>71100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>70100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>70900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>136000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>66100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>65600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>64800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>68900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>66600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>65800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>64700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>65200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>66600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E9" s="3">
         <v>54900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>103200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>51200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>52700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>54100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>104600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>50100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>50000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>49200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>47700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>49700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>47000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>46000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>45900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E10" s="3">
         <v>21400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>16800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>16100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>20700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E17" s="3">
         <v>70600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>132100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>67000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>65900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>68600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>132200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>65100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>62700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>61600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>62400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>62900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>61000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>59600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>63600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E18" s="3">
         <v>5700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,16 +1312,17 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1297,128 +1331,134 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>4500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E21" s="3">
         <v>9200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1433,119 +1473,128 @@
         <v>200</v>
       </c>
       <c r="R22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E23" s="3">
         <v>5600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E26" s="3">
         <v>4700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E27" s="3">
         <v>4600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1782,20 +1843,20 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>1100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-5100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,16 +1982,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -1933,96 +2003,102 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-4500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E33" s="3">
         <v>4600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E35" s="3">
         <v>4600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E41" s="3">
         <v>20500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2294,259 +2384,274 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>21900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>18100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>23600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>18700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E43" s="3">
         <v>41800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>35700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>36300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>35500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>35900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>38300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>39900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>32100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>32800</v>
-      </c>
-      <c r="P43" s="3">
-        <v>32000</v>
       </c>
       <c r="Q43" s="3">
         <v>32000</v>
       </c>
       <c r="R43" s="3">
+        <v>32000</v>
+      </c>
+      <c r="S43" s="3">
         <v>31000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E44" s="3">
         <v>24100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>22700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>23800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>24200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>26700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>28100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>25400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>23400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>22600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>22800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>22600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>23800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>23200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>23600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E45" s="3">
         <v>7600</v>
-      </c>
-      <c r="E45" s="3">
-        <v>6200</v>
       </c>
       <c r="F45" s="3">
         <v>6200</v>
       </c>
       <c r="G45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H45" s="3">
         <v>7800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E46" s="3">
         <v>94100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>86200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>85500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>89300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>86800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>82300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>85200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>83000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>87100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>94200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>88900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>94200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>98100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>92800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>86000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E48" s="3">
         <v>98500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>98400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>99200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>90800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>87100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>86200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>87300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>86700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>84800</v>
-      </c>
-      <c r="M48" s="3">
-        <v>84300</v>
       </c>
       <c r="N48" s="3">
         <v>84300</v>
       </c>
       <c r="O48" s="3">
+        <v>84300</v>
+      </c>
+      <c r="P48" s="3">
         <v>84000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>81500</v>
       </c>
       <c r="Q48" s="3">
         <v>81500</v>
       </c>
       <c r="R48" s="3">
+        <v>81500</v>
+      </c>
+      <c r="S48" s="3">
         <v>81700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E49" s="3">
         <v>11900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>12300</v>
       </c>
       <c r="H49" s="3">
         <v>12300</v>
       </c>
       <c r="I49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J49" s="3">
         <v>12400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>13600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>13800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E52" s="3">
         <v>11500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>20900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>235900</v>
+      </c>
+      <c r="E54" s="3">
         <v>216000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>209100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>209700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>205200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>198500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>193100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>197000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>194700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>198000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>205500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>206900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>212600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>212100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>206600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>200100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,66 +3141,70 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E57" s="3">
         <v>10500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>13300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>3100</v>
@@ -3094,10 +3228,10 @@
         <v>3100</v>
       </c>
       <c r="L58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M58" s="3">
         <v>9100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>3100</v>
       </c>
       <c r="N58" s="3">
         <v>3100</v>
@@ -3117,119 +3251,128 @@
       <c r="S58" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E59" s="3">
         <v>27300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E60" s="3">
         <v>40900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>31500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>35700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>33300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>33000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>32800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3238,10 +3381,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>3100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>3000</v>
       </c>
       <c r="I61" s="3">
         <v>3000</v>
@@ -3250,7 +3393,7 @@
         <v>3000</v>
       </c>
       <c r="K61" s="3">
-        <v>6100</v>
+        <v>3000</v>
       </c>
       <c r="L61" s="3">
         <v>6100</v>
@@ -3262,75 +3405,81 @@
         <v>6100</v>
       </c>
       <c r="O61" s="3">
-        <v>9200</v>
+        <v>6100</v>
       </c>
       <c r="P61" s="3">
         <v>9200</v>
       </c>
       <c r="Q61" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="R61" s="3">
         <v>9100</v>
       </c>
       <c r="S61" s="3">
+        <v>9100</v>
+      </c>
+      <c r="T61" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E62" s="3">
         <v>28400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>28600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>41800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>34000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>26200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>26400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>39800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>45000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>44400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>47300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>47400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>46800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E66" s="3">
         <v>69200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>71700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>69700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>60900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>60400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>65200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>69000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>79300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>78800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>86500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>89300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>86100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>83300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>176600</v>
+      </c>
+      <c r="E72" s="3">
         <v>172500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>169600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>166500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>164800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>162700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>158800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>158200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>158900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>157900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>153600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>156200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>154700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>155000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>153200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>150500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>149900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E76" s="3">
         <v>146800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>147100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>138000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>135600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>137600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>132800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>131800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>131900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>129000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>126300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>128100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>126000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>122800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>120500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>116800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E81" s="3">
         <v>4600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4233,25 +4432,25 @@
         <v>3500</v>
       </c>
       <c r="E83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F83" s="3">
         <v>6900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3500</v>
       </c>
       <c r="G83" s="3">
         <v>3500</v>
       </c>
       <c r="H83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I83" s="3">
         <v>3300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>3200</v>
       </c>
       <c r="L83" s="3">
         <v>3200</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E89" s="3">
         <v>8000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,31 +5082,32 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1800</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-1700</v>
       </c>
       <c r="H96" s="3">
         <v>-1700</v>
       </c>
       <c r="I96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1600</v>
       </c>
       <c r="K96" s="3">
         <v>-1600</v>
@@ -4888,7 +5122,7 @@
         <v>-1600</v>
       </c>
       <c r="O96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="P96" s="3">
         <v>-1500</v>
@@ -4900,10 +5134,13 @@
         <v>-1500</v>
       </c>
       <c r="S96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1700</v>
       </c>
       <c r="H100" s="3">
         <v>-1700</v>
       </c>
       <c r="I100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J100" s="3">
         <v>-6500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>ODC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,283 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>76100</v>
+      </c>
+      <c r="F8" s="3">
         <v>64800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>76300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>142100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>71100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>70100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>70900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>136000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>66100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>65600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>64800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>68900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>66600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>65800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>64700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>65200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>66600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>55800</v>
+      </c>
+      <c r="F9" s="3">
         <v>49300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>54900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>103200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>51200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>52700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>54100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>104600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>50100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>50000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>47200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>49200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>47700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>49700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>47000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>46000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>45900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F10" s="3">
         <v>15500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>21400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>38900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>19900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>17400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>16800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>31400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>16000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>15600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>17600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>19700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>18900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>16100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>17700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>19200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>20700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>70900</v>
+      </c>
+      <c r="F17" s="3">
         <v>55700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>70600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>132100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>67000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>65900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>68600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>132200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>65100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>62700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>61600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>63700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>62400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>62900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>61000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>59600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>63600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F18" s="3">
         <v>9100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>5700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>10000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>4200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>4200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>3700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>5600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1379,134 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F21" s="3">
         <v>11300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>9200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>17000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>7600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>7800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>10200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>10500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>6000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>6600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>8500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>7200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>6200</v>
       </c>
       <c r="Q21" s="3">
         <v>7200</v>
       </c>
       <c r="R21" s="3">
+        <v>6200</v>
+      </c>
+      <c r="S21" s="3">
+        <v>7200</v>
+      </c>
+      <c r="T21" s="3">
         <v>8700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>6100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,7 +1514,7 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1449,22 +1529,22 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
@@ -1476,125 +1556,143 @@
         <v>200</v>
       </c>
       <c r="S22" s="3">
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
+        <v>200</v>
+      </c>
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F23" s="3">
         <v>7600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>9800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>4200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>6700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>5100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>3800</v>
-      </c>
-      <c r="P23" s="3">
-        <v>2900</v>
       </c>
       <c r="Q23" s="3">
         <v>3800</v>
       </c>
       <c r="R23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S23" s="3">
+        <v>3800</v>
+      </c>
+      <c r="T23" s="3">
         <v>5200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>800</v>
+      </c>
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>800</v>
-      </c>
       <c r="N24" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>800</v>
       </c>
       <c r="P24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>800</v>
+      </c>
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F26" s="3">
         <v>5900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>8200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>3200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>4300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F27" s="3">
         <v>5900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>8100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>2000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1846,23 +1968,23 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>1100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-5100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2119,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
-      </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F33" s="3">
         <v>5900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>8100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>2000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F35" s="3">
         <v>5900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>8100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>2000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2486,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>31300</v>
+      </c>
+      <c r="F41" s="3">
         <v>40900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>20500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>21600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>19300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>21900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>16200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>9400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>12800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>10600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>9400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>8400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>9100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>13600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>17600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>16000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2387,271 +2567,301 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>2700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>7100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>14300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>21900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>18100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>23600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>18700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>7400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>5400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>39200</v>
+      </c>
+      <c r="F43" s="3">
         <v>34900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>41800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>35700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>36300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>35500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>35900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>38300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>39900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>33600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>32600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>32300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>32100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>32800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>32000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>32000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>31000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F44" s="3">
         <v>23900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>24100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>22700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>23800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>24200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>26700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>28100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>25400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>22500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>23400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>22600</v>
-      </c>
-      <c r="O44" s="3">
-        <v>22800</v>
       </c>
       <c r="P44" s="3">
         <v>22600</v>
       </c>
       <c r="Q44" s="3">
+        <v>22800</v>
+      </c>
+      <c r="R44" s="3">
+        <v>22600</v>
+      </c>
+      <c r="S44" s="3">
         <v>23800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>23200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>23600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F45" s="3">
         <v>8700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>6200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>7800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>6000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>8200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>7000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>6200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>8000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>7600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>9000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>10000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>12600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>10100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>102300</v>
+      </c>
+      <c r="F46" s="3">
         <v>108400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>94100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>86200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>85500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>89300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>86800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>82300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>85200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>83000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>87100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>94200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>88900</v>
       </c>
       <c r="P46" s="3">
         <v>94200</v>
       </c>
       <c r="Q46" s="3">
+        <v>88900</v>
+      </c>
+      <c r="R46" s="3">
+        <v>94200</v>
+      </c>
+      <c r="S46" s="3">
         <v>98100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>92800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>86000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2916,138 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100300</v>
+      </c>
+      <c r="F48" s="3">
         <v>102800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>98500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>98400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>99200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>90800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>87100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>86200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>87300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>86700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>84800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>84300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>84300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>84000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>81500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>81500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>81700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E49" s="3">
         <v>11700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G49" s="3">
         <v>11900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>12000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>12200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>12300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>12300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>12400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>12700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>12800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>13000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>13300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>13400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>13600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>13800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>14100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3164,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F52" s="3">
         <v>13000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>11500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>12500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>12900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>12800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>12300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>12200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>11800</v>
       </c>
       <c r="L52" s="3">
         <v>12200</v>
       </c>
       <c r="M52" s="3">
+        <v>11800</v>
+      </c>
+      <c r="N52" s="3">
+        <v>12200</v>
+      </c>
+      <c r="O52" s="3">
         <v>13300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>14000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>20500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>20900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>18800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>18500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>18300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>228200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>227400</v>
+      </c>
+      <c r="F54" s="3">
         <v>235900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>216000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>209100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>209700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>205200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>198500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>193100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>197000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>194700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>198000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>205500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>206900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>212600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>212100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>206600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>200100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3402,72 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F57" s="3">
         <v>12500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>9600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>7900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>8100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>8600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>13300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>6500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>7700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>8100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>9600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>8100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>7300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>6900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,10 +3475,10 @@
         <v>1000</v>
       </c>
       <c r="E58" s="3">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="F58" s="3">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="G58" s="3">
         <v>3100</v>
@@ -3231,13 +3499,13 @@
         <v>3100</v>
       </c>
       <c r="M58" s="3">
-        <v>9100</v>
+        <v>3100</v>
       </c>
       <c r="N58" s="3">
         <v>3100</v>
       </c>
       <c r="O58" s="3">
-        <v>3100</v>
+        <v>9100</v>
       </c>
       <c r="P58" s="3">
         <v>3100</v>
@@ -3254,152 +3522,170 @@
       <c r="T58" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>23700</v>
+      </c>
+      <c r="F59" s="3">
         <v>32700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>27300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>20900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>19000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>21400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>19800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>20100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>19300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>21300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>18900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>22200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>16800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>20300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>21600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>19100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>17300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>34500</v>
+      </c>
+      <c r="F60" s="3">
         <v>46200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>40900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>33500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>30000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>32600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>31500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>31100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>35700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>30900</v>
       </c>
       <c r="M60" s="3">
         <v>35700</v>
       </c>
       <c r="N60" s="3">
+        <v>30900</v>
+      </c>
+      <c r="O60" s="3">
+        <v>35700</v>
+      </c>
+      <c r="P60" s="3">
         <v>33300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>27700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>33000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>32800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>29500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>27300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F61" s="3">
         <v>8800</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>3100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>3000</v>
       </c>
       <c r="K61" s="3">
         <v>3000</v>
       </c>
       <c r="L61" s="3">
-        <v>6100</v>
+        <v>3000</v>
       </c>
       <c r="M61" s="3">
-        <v>6100</v>
+        <v>3000</v>
       </c>
       <c r="N61" s="3">
         <v>6100</v>
@@ -3408,78 +3694,90 @@
         <v>6100</v>
       </c>
       <c r="P61" s="3">
+        <v>6100</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>6100</v>
+      </c>
+      <c r="R61" s="3">
         <v>9200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>9200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>9100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>9100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F62" s="3">
         <v>32900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>28400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>28600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>41800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>34000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>26400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>26200</v>
       </c>
       <c r="K62" s="3">
         <v>26400</v>
       </c>
       <c r="L62" s="3">
+        <v>26200</v>
+      </c>
+      <c r="M62" s="3">
+        <v>26400</v>
+      </c>
+      <c r="N62" s="3">
         <v>25700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>27200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>39800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>45000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>44400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>47300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>47400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>46800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>76800</v>
+      </c>
+      <c r="F66" s="3">
         <v>87700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>69200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>62000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>71700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>69700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>60900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>60400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>65200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>62800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>69000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>79300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>78800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>86500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>89300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>86100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>83300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>181300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>178800</v>
+      </c>
+      <c r="F72" s="3">
         <v>176600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>172500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>169600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>166500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>164800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>162700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>158800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>158200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>158900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>157900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>153600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>156200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>154700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>155000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>153200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>150500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>149900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>152700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>150500</v>
+      </c>
+      <c r="F76" s="3">
         <v>148100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>146800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>147100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>138000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>135600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>137600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>132800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>131800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>131900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>129000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>126300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>128100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>126000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>122800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>120500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>116800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F81" s="3">
         <v>5900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>8100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>2000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,40 +4819,42 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E83" s="3">
         <v>3500</v>
       </c>
       <c r="F83" s="3">
-        <v>6900</v>
+        <v>3500</v>
       </c>
       <c r="G83" s="3">
         <v>3500</v>
       </c>
       <c r="H83" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I83" s="3">
         <v>3500</v>
       </c>
-      <c r="I83" s="3">
-        <v>3300</v>
-      </c>
       <c r="J83" s="3">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="K83" s="3">
         <v>3300</v>
       </c>
       <c r="L83" s="3">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="M83" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="N83" s="3">
         <v>3200</v>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="V83" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F89" s="3">
         <v>20200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>8000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>14300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>6700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>11400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>12700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>7800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-8800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>9100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>5900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>11900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>7800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5277,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="E91" s="3">
         <v>-3600</v>
       </c>
       <c r="F91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H91" s="3">
         <v>-7300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-4900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-4500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-3000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-4300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5459,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-7300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-4100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-4200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>5700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>1400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-14400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-5000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,37 +5549,39 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E96" s="3">
         <v>-1800</v>
       </c>
       <c r="F96" s="3">
-        <v>-3500</v>
+        <v>-1700</v>
       </c>
       <c r="G96" s="3">
         <v>-1800</v>
       </c>
       <c r="H96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-1700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1600</v>
       </c>
       <c r="M96" s="3">
         <v>-1600</v>
@@ -5125,10 +5593,10 @@
         <v>-1600</v>
       </c>
       <c r="P96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="Q96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="R96" s="3">
         <v>-1500</v>
@@ -5137,10 +5605,16 @@
         <v>-1500</v>
       </c>
       <c r="T96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5793,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F100" s="3">
         <v>4100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-5700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-7100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-5300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-6500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-4800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-7600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>4400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-4700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-4600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>200</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>200</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F102" s="3">
         <v>20300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>5600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>6800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-4000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-2600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>ODC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E8" s="3">
         <v>74500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>76100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>64800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>76300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>142100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>71100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>70100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>70900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>136000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>66100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>65600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>64800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>68900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>66600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>65800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>64700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>65200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>66600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E9" s="3">
         <v>56300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>55800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>49300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>54900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>103200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>51200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>52700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>54100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>104600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>50100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>50000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>47200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>49200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>47700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>49700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>47000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>46000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>45900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E10" s="3">
         <v>18200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>15500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>21400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>15600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>16100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>17700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>19200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>20700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E17" s="3">
         <v>70300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>55700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>132100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>67000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>65900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>68600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>132200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>65100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>62700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>61600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>63700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>62400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>62900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>61000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>59600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>63600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,25 +1413,26 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1408,105 +1441,111 @@
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
       </c>
       <c r="V20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E21" s="3">
         <v>8900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1520,34 +1559,34 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
@@ -1562,137 +1601,146 @@
         <v>200</v>
       </c>
       <c r="U22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1974,20 +2034,20 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>1100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,25 +2191,28 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -2152,105 +2221,111 @@
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
-      </c>
-      <c r="T32" s="3">
-        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>100</v>
       </c>
       <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,380 +2573,399 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E41" s="3">
         <v>30700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>21900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>18100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>23600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>18700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>5400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E43" s="3">
         <v>38900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>39200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>34900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>41800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>35700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>36300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>35500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>38300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>39900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>33600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>32600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>32300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>32100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>32800</v>
-      </c>
-      <c r="S43" s="3">
-        <v>32000</v>
       </c>
       <c r="T43" s="3">
         <v>32000</v>
       </c>
       <c r="U43" s="3">
+        <v>32000</v>
+      </c>
+      <c r="V43" s="3">
         <v>31000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E44" s="3">
         <v>23700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>23900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>24100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>22700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>23800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>24200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>26700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>28100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>25400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>22500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>23400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>22600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>22800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>22600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>23800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>23200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>23600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E45" s="3">
         <v>9500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>6200</v>
       </c>
       <c r="I45" s="3">
         <v>6200</v>
       </c>
       <c r="J45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K45" s="3">
         <v>7800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E46" s="3">
         <v>102800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>102300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>108400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>94100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>86200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>85500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>89300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>86800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>82300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>85200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>83000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>87100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>94200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>88900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>94200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>98100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>92800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>86000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,70 +3026,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E48" s="3">
         <v>100400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>100300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>102800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>98500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>98400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>99200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>90800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>87100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>86200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>87300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>86700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>84800</v>
-      </c>
-      <c r="P48" s="3">
-        <v>84300</v>
       </c>
       <c r="Q48" s="3">
         <v>84300</v>
       </c>
       <c r="R48" s="3">
+        <v>84300</v>
+      </c>
+      <c r="S48" s="3">
         <v>84000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>81500</v>
       </c>
       <c r="T48" s="3">
         <v>81500</v>
       </c>
       <c r="U48" s="3">
+        <v>81500</v>
+      </c>
+      <c r="V48" s="3">
         <v>81700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2993,61 +3103,64 @@
         <v>11600</v>
       </c>
       <c r="E49" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="F49" s="3">
         <v>11700</v>
       </c>
       <c r="G49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="H49" s="3">
         <v>11900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>12300</v>
       </c>
       <c r="K49" s="3">
         <v>12300</v>
       </c>
       <c r="L49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="M49" s="3">
         <v>12400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>13000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>13300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>13400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>13600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>13800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>14100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E52" s="3">
         <v>13400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>20900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>18500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>229600</v>
+      </c>
+      <c r="E54" s="3">
         <v>228200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>227400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>235900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>216000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>209100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>209700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>205200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>198500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>193100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>197000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>194700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>198000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>205500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>206900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>212600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>212100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>206600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>200100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E57" s="3">
         <v>7300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3481,7 +3614,7 @@
         <v>1000</v>
       </c>
       <c r="G58" s="3">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="H58" s="3">
         <v>3100</v>
@@ -3505,10 +3638,10 @@
         <v>3100</v>
       </c>
       <c r="O58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P58" s="3">
         <v>9100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>3100</v>
       </c>
       <c r="Q58" s="3">
         <v>3100</v>
@@ -3528,132 +3661,141 @@
       <c r="V58" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E59" s="3">
         <v>26700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>20300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>19100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E60" s="3">
         <v>34900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>46200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>40900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>30000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>32600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>30900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>35700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>33300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>33000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>32800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>29500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>27300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3664,11 +3806,11 @@
         <v>8900</v>
       </c>
       <c r="F61" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G61" s="3">
         <v>8800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3676,10 +3818,10 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>3100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>3000</v>
       </c>
       <c r="L61" s="3">
         <v>3000</v>
@@ -3688,7 +3830,7 @@
         <v>3000</v>
       </c>
       <c r="N61" s="3">
-        <v>6100</v>
+        <v>3000</v>
       </c>
       <c r="O61" s="3">
         <v>6100</v>
@@ -3700,84 +3842,90 @@
         <v>6100</v>
       </c>
       <c r="R61" s="3">
-        <v>9200</v>
+        <v>6100</v>
       </c>
       <c r="S61" s="3">
         <v>9200</v>
       </c>
       <c r="T61" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="U61" s="3">
         <v>9100</v>
       </c>
       <c r="V61" s="3">
+        <v>9100</v>
+      </c>
+      <c r="W61" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E62" s="3">
         <v>32000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>33700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>32900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>28400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>28600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>41800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>34000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>26200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>26400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>27200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>39800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>45000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>44400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>47300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>47400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>46800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E66" s="3">
         <v>75500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>76800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>87700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>69200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>71700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>69700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>60400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>65200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>79300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>78800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>86500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>89300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>86100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>83300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>181700</v>
+      </c>
+      <c r="E72" s="3">
         <v>181300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>178800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>176600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>172500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>169600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>166500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>164800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>162700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>158800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>158200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>158900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>157900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>153600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>156200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>154700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>155000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>153200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>150500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>149900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>153200</v>
+      </c>
+      <c r="E76" s="3">
         <v>152700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>150500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>148100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>146800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>147100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>138000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>135600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>137600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>132800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>131800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>131900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>129000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>126300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>128100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>126000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>122800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>120500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>116800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4830,7 +5028,7 @@
         <v>3600</v>
       </c>
       <c r="E83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F83" s="3">
         <v>3500</v>
@@ -4839,25 +5037,25 @@
         <v>3500</v>
       </c>
       <c r="H83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I83" s="3">
         <v>6900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3500</v>
       </c>
       <c r="J83" s="3">
         <v>3500</v>
       </c>
       <c r="K83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L83" s="3">
         <v>3300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>3200</v>
       </c>
       <c r="O83" s="3">
         <v>3200</v>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E89" s="3">
         <v>6500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5563,28 +5796,28 @@
         <v>-1800</v>
       </c>
       <c r="F96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1700</v>
       </c>
       <c r="K96" s="3">
         <v>-1700</v>
       </c>
       <c r="L96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1600</v>
       </c>
       <c r="N96" s="3">
         <v>-1600</v>
@@ -5599,7 +5832,7 @@
         <v>-1600</v>
       </c>
       <c r="R96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="S96" s="3">
         <v>-1500</v>
@@ -5611,10 +5844,13 @@
         <v>-1500</v>
       </c>
       <c r="V96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1700</v>
       </c>
       <c r="K100" s="3">
         <v>-1700</v>
       </c>
       <c r="L100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M100" s="3">
         <v>-6500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
       <c r="J101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>-100</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
       <c r="U101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>ODC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E8" s="3">
         <v>76300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>74500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>76100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>64800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>76300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>142100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>71100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>70100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>70900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>136000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>66100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>65600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>64800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>68900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>66600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>65800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>64700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>65200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>66600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E9" s="3">
         <v>59700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>56300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>55800</v>
       </c>
-      <c r="G9" s="3">
-        <v>49300</v>
-      </c>
       <c r="H9" s="3">
+        <v>56400</v>
+      </c>
+      <c r="I9" s="3">
         <v>54900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>103200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>51200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>52700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>54100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>104600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>50100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>50000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>47200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>49200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>47700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>49700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>47000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>46000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>45900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E10" s="3">
         <v>16600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>18200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20300</v>
       </c>
-      <c r="G10" s="3">
-        <v>15500</v>
-      </c>
       <c r="H10" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I10" s="3">
         <v>21400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>15600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>16100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>17700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>19200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>20700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E17" s="3">
         <v>74300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>55700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>70600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>132100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>67000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>65900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>68600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>132200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>65100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>62700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>61600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>63700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>62400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>62900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>61000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>59600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>63600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,28 +1447,29 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1444,108 +1478,114 @@
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-100</v>
       </c>
       <c r="V20" s="3">
         <v>-100</v>
       </c>
       <c r="W20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1562,34 +1602,34 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
@@ -1604,143 +1644,152 @@
         <v>200</v>
       </c>
       <c r="V22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,31 +2057,34 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2037,20 +2098,20 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-5100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,28 +2261,31 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -2224,108 +2294,114 @@
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
-      </c>
-      <c r="U32" s="3">
-        <v>100</v>
       </c>
       <c r="V32" s="3">
         <v>100</v>
       </c>
       <c r="W32" s="3">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E41" s="3">
         <v>30300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>16000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2669,108 +2759,114 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>21900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>18100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>23600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>18700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>7400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E43" s="3">
         <v>39100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>38900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>39200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>34900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>41800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>35700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>36300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>35900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>38300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>39900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>33600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>32600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>32300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>32100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>32800</v>
-      </c>
-      <c r="T43" s="3">
-        <v>32000</v>
       </c>
       <c r="U43" s="3">
         <v>32000</v>
       </c>
       <c r="V43" s="3">
+        <v>32000</v>
+      </c>
+      <c r="W43" s="3">
         <v>31000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2778,194 +2874,203 @@
         <v>23600</v>
       </c>
       <c r="E44" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F44" s="3">
         <v>23700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>23500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>23900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>24100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>22700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>23800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>24200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>26700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>28100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>25400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>22500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>23400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>22600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>22800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>22600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>23800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>23200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>23600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E45" s="3">
         <v>10900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>6200</v>
       </c>
       <c r="J45" s="3">
         <v>6200</v>
       </c>
       <c r="K45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="L45" s="3">
         <v>7800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>10100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E46" s="3">
         <v>103900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>102800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>102300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>108400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>94100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>86200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>85500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>89300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>86800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>82300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>85200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>83000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>87100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>94200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>88900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>94200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>98100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>92800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>86000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,138 +3134,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E48" s="3">
         <v>100300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>100400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>100300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>102800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>98500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>98400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>99200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>90800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>87100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>86200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>87300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>86700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>84800</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>84300</v>
       </c>
       <c r="R48" s="3">
         <v>84300</v>
       </c>
       <c r="S48" s="3">
+        <v>84300</v>
+      </c>
+      <c r="T48" s="3">
         <v>84000</v>
-      </c>
-      <c r="T48" s="3">
-        <v>81500</v>
       </c>
       <c r="U48" s="3">
         <v>81500</v>
       </c>
       <c r="V48" s="3">
+        <v>81500</v>
+      </c>
+      <c r="W48" s="3">
         <v>81700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="E49" s="3">
         <v>11600</v>
       </c>
       <c r="F49" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="G49" s="3">
         <v>11700</v>
       </c>
       <c r="H49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I49" s="3">
         <v>11900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>12300</v>
       </c>
       <c r="L49" s="3">
         <v>12300</v>
       </c>
       <c r="M49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="N49" s="3">
         <v>12400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>13000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>13300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>13400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>13600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>13800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>14100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E52" s="3">
         <v>13800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>20500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>20900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>18800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>227600</v>
+      </c>
+      <c r="E54" s="3">
         <v>229600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>228200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>227400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>235900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>216000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>209100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>209700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>205200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>198500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>193100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>197000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>194700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>198000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>205500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>206900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>212600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>212100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>206600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>200100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E57" s="3">
         <v>6900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3617,7 +3751,7 @@
         <v>1000</v>
       </c>
       <c r="H58" s="3">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="I58" s="3">
         <v>3100</v>
@@ -3641,10 +3775,10 @@
         <v>3100</v>
       </c>
       <c r="P58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>9100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>3100</v>
       </c>
       <c r="R58" s="3">
         <v>3100</v>
@@ -3664,143 +3798,152 @@
       <c r="W58" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E59" s="3">
         <v>28000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>20300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>21600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>19100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E60" s="3">
         <v>35900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>46200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>40900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>30000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>35700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>30900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>35700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>33300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>33000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>32800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>29500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>27300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8900</v>
+        <v>7900</v>
       </c>
       <c r="E61" s="3">
         <v>8900</v>
@@ -3809,11 +3952,11 @@
         <v>8900</v>
       </c>
       <c r="G61" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H61" s="3">
         <v>8800</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3821,10 +3964,10 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>3100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>3000</v>
       </c>
       <c r="M61" s="3">
         <v>3000</v>
@@ -3833,7 +3976,7 @@
         <v>3000</v>
       </c>
       <c r="O61" s="3">
-        <v>6100</v>
+        <v>3000</v>
       </c>
       <c r="P61" s="3">
         <v>6100</v>
@@ -3845,87 +3988,93 @@
         <v>6100</v>
       </c>
       <c r="S61" s="3">
-        <v>9200</v>
+        <v>6100</v>
       </c>
       <c r="T61" s="3">
         <v>9200</v>
       </c>
       <c r="U61" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="V61" s="3">
         <v>9100</v>
       </c>
       <c r="W61" s="3">
+        <v>9100</v>
+      </c>
+      <c r="X61" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E62" s="3">
         <v>31900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>32000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>33700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>32900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>28400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>28600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>41800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>26400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>26200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>26400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>27200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>39800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>45000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>44400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>47300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>47400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>46800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E66" s="3">
         <v>76400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>75500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>76800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>87700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>69200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>71700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>69700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>60900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>60400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>65200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>69000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>79300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>78800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>86500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>89300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>86100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>83300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>180400</v>
+      </c>
+      <c r="E72" s="3">
         <v>181700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>181300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>178800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>176600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>172500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>169600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>166500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>164800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>162700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>158800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>158200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>158900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>157900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>153600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>156200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>154700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>155000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>153200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>150500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>149900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>159500</v>
+      </c>
+      <c r="E76" s="3">
         <v>153200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>152700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>150500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>148100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>146800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>147100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>138000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>135600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>137600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>132800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>131800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>131900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>129000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>126300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>128100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>126000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>122800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>120500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>116800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,19 +5217,20 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E83" s="3">
         <v>3600</v>
       </c>
       <c r="F83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G83" s="3">
         <v>3500</v>
@@ -5040,25 +5239,25 @@
         <v>3500</v>
       </c>
       <c r="I83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J83" s="3">
         <v>6900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3500</v>
       </c>
       <c r="K83" s="3">
         <v>3500</v>
       </c>
       <c r="L83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M83" s="3">
         <v>3300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>3200</v>
       </c>
       <c r="P83" s="3">
         <v>3200</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5418,64 +5635,67 @@
         <v>5300</v>
       </c>
       <c r="E89" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F89" s="3">
         <v>6500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>14300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-14400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5799,28 +6033,28 @@
         <v>-1800</v>
       </c>
       <c r="G96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-1700</v>
       </c>
       <c r="L96" s="3">
         <v>-1700</v>
       </c>
       <c r="M96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-1600</v>
       </c>
       <c r="O96" s="3">
         <v>-1600</v>
@@ -5835,7 +6069,7 @@
         <v>-1600</v>
       </c>
       <c r="S96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="T96" s="3">
         <v>-1500</v>
@@ -5847,10 +6081,13 @@
         <v>-1500</v>
       </c>
       <c r="W96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-1700</v>
       </c>
       <c r="L100" s="3">
         <v>-1700</v>
       </c>
       <c r="M100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N100" s="3">
         <v>-6500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L101" s="3">
         <v>100</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>-100</v>
       </c>
       <c r="Q101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>ODC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E8" s="3">
         <v>78100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>76300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>74500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>76100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>64800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>76300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>142100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>71100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>70100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>70900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>136000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>66100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>65600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>64800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>68900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>66600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>65800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>64700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>65200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>66600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E9" s="3">
         <v>67900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>59700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>56300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>55800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>56400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>54900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>103200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>52700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>54100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>104600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>50100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>50000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>47200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>49200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>47700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>49700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>47000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>46000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>45900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E10" s="3">
         <v>10200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>16600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>21400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>38900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>16000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>15600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>17600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>18900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>16100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>17700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>19200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>20700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E17" s="3">
         <v>76400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>74300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>55700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>132100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>67000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>65900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>68600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>132200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>65100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>62700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>61600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>63700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>62400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>62900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>61000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>59600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>63600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>500</v>
+      </c>
+      <c r="E18" s="3">
         <v>1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,31 +1481,32 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1481,111 +1515,117 @@
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-100</v>
       </c>
       <c r="W20" s="3">
         <v>-100</v>
       </c>
       <c r="X20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E21" s="3">
         <v>5000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1605,34 +1645,34 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
@@ -1647,149 +1687,158 @@
         <v>200</v>
       </c>
       <c r="W22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1905,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1865,67 +1917,70 @@
         <v>600</v>
       </c>
       <c r="E26" s="3">
+        <v>600</v>
+      </c>
+      <c r="F26" s="3">
         <v>2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1933,67 +1988,70 @@
         <v>600</v>
       </c>
       <c r="E27" s="3">
+        <v>600</v>
+      </c>
+      <c r="F27" s="3">
         <v>2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2086,8 +2147,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2101,20 +2162,20 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>1100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-5100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,31 +2331,34 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -2297,43 +2367,46 @@
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
-      </c>
-      <c r="V32" s="3">
-        <v>100</v>
       </c>
       <c r="W32" s="3">
         <v>100</v>
       </c>
       <c r="X32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2341,67 +2414,70 @@
         <v>600</v>
       </c>
       <c r="E33" s="3">
+        <v>600</v>
+      </c>
+      <c r="F33" s="3">
         <v>2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2544,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2477,140 +2556,146 @@
         <v>600</v>
       </c>
       <c r="E35" s="3">
+        <v>600</v>
+      </c>
+      <c r="F35" s="3">
         <v>2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E41" s="3">
         <v>24600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>40900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>17600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>16000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2762,315 +2852,330 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>21900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>18100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>23600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>18700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>5400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E43" s="3">
         <v>40900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>39100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>38900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>34900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>41800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>35700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>36300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>35500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>35900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>38300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>39900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>33600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>32600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>32300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>32100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>32800</v>
-      </c>
-      <c r="U43" s="3">
-        <v>32000</v>
       </c>
       <c r="V43" s="3">
         <v>32000</v>
       </c>
       <c r="W43" s="3">
+        <v>32000</v>
+      </c>
+      <c r="X43" s="3">
         <v>31000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23600</v>
+        <v>28700</v>
       </c>
       <c r="E44" s="3">
         <v>23600</v>
       </c>
       <c r="F44" s="3">
+        <v>23600</v>
+      </c>
+      <c r="G44" s="3">
         <v>23700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>23500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>23900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>24100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>22700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>23800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>24200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>26700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>28100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>25400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>22500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>23400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>22600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>22800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>22600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>23800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>23200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>23600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E45" s="3">
         <v>12800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>6200</v>
       </c>
       <c r="K45" s="3">
         <v>6200</v>
       </c>
       <c r="L45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M45" s="3">
         <v>7800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>10100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>97500</v>
+      </c>
+      <c r="E46" s="3">
         <v>101900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>103900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>102800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>102300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>108400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>94100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>86200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>85500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>89300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>86800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>82300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>85200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>83000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>87100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>94200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>88900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>94200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>98100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>92800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>86000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,144 +3242,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E48" s="3">
         <v>104600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>100300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>100400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>100300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>102800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>98500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>98400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>99200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>90800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>87100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>86200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>87300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>86700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>84800</v>
-      </c>
-      <c r="R48" s="3">
-        <v>84300</v>
       </c>
       <c r="S48" s="3">
         <v>84300</v>
       </c>
       <c r="T48" s="3">
+        <v>84300</v>
+      </c>
+      <c r="U48" s="3">
         <v>84000</v>
-      </c>
-      <c r="U48" s="3">
-        <v>81500</v>
       </c>
       <c r="V48" s="3">
         <v>81500</v>
       </c>
       <c r="W48" s="3">
+        <v>81500</v>
+      </c>
+      <c r="X48" s="3">
         <v>81700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E49" s="3">
         <v>11500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>11600</v>
       </c>
       <c r="F49" s="3">
         <v>11600</v>
       </c>
       <c r="G49" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="H49" s="3">
         <v>11700</v>
       </c>
       <c r="I49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="J49" s="3">
         <v>11900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>12300</v>
       </c>
       <c r="M49" s="3">
         <v>12300</v>
       </c>
       <c r="N49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="O49" s="3">
         <v>12400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>13000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>13300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>13400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>13600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>13800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>14100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E52" s="3">
         <v>9600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>20500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>20900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>18300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>223900</v>
+      </c>
+      <c r="E54" s="3">
         <v>227600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>229600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>228200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>227400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>235900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>216000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>209100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>209700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>205200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>198500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>193100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>197000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>194700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>198000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>205500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>206900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>212600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>212100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>206600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>200100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3795,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E57" s="3">
         <v>9200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3754,7 +3888,7 @@
         <v>1000</v>
       </c>
       <c r="I58" s="3">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="J58" s="3">
         <v>3100</v>
@@ -3778,10 +3912,10 @@
         <v>3100</v>
       </c>
       <c r="Q58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R58" s="3">
         <v>9100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>3100</v>
       </c>
       <c r="S58" s="3">
         <v>3100</v>
@@ -3801,144 +3935,153 @@
       <c r="X58" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E59" s="3">
         <v>28800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>20300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>21600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>19100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E60" s="3">
         <v>39000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>35900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>46200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>40900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>35700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>30900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>35700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>33300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>27700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>33000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>32800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>29500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>27300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,7 +4089,7 @@
         <v>7900</v>
       </c>
       <c r="E61" s="3">
-        <v>8900</v>
+        <v>7900</v>
       </c>
       <c r="F61" s="3">
         <v>8900</v>
@@ -3955,11 +4098,11 @@
         <v>8900</v>
       </c>
       <c r="H61" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I61" s="3">
         <v>8800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3967,10 +4110,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>3100</v>
-      </c>
-      <c r="M61" s="3">
-        <v>3000</v>
       </c>
       <c r="N61" s="3">
         <v>3000</v>
@@ -3979,7 +4122,7 @@
         <v>3000</v>
       </c>
       <c r="P61" s="3">
-        <v>6100</v>
+        <v>3000</v>
       </c>
       <c r="Q61" s="3">
         <v>6100</v>
@@ -3991,90 +4134,96 @@
         <v>6100</v>
       </c>
       <c r="T61" s="3">
-        <v>9200</v>
+        <v>6100</v>
       </c>
       <c r="U61" s="3">
         <v>9200</v>
       </c>
       <c r="V61" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="W61" s="3">
         <v>9100</v>
       </c>
       <c r="X61" s="3">
+        <v>9100</v>
+      </c>
+      <c r="Y61" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E62" s="3">
         <v>21500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>31900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>32000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>33700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>32900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>28400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>28600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>41800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>26400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>26200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>26400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>27200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>39800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>45000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>44400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>47300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>47400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>46800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E66" s="3">
         <v>68000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>76400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>75500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>76800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>87700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>69200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>71700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>69700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>60900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>60400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>65200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>62800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>69000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>79300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>78800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>86500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>89300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>86100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>83300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>179200</v>
+      </c>
+      <c r="E72" s="3">
         <v>180400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>181700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>181300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>178800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>176600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>172500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>169600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>166500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>164800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>162700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>158800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>158200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>158900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>157900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>153600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>156200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>154700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>155000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>153200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>150500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>149900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>156600</v>
+      </c>
+      <c r="E76" s="3">
         <v>159500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>153200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>152700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>150500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>148100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>146800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>147100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>138000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>135600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>137600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>132800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>131800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>131900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>129000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>126300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>128100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>126000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>122800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>120500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>116800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5240,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5133,67 +5328,70 @@
         <v>600</v>
       </c>
       <c r="E81" s="3">
+        <v>600</v>
+      </c>
+      <c r="F81" s="3">
         <v>2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,13 +5426,13 @@
         <v>3500</v>
       </c>
       <c r="E83" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F83" s="3">
         <v>3600</v>
       </c>
       <c r="G83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H83" s="3">
         <v>3500</v>
@@ -5242,25 +5441,25 @@
         <v>3500</v>
       </c>
       <c r="J83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K83" s="3">
         <v>6900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>3500</v>
       </c>
       <c r="L83" s="3">
         <v>3500</v>
       </c>
       <c r="M83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N83" s="3">
         <v>3300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3300</v>
-      </c>
-      <c r="P83" s="3">
-        <v>3200</v>
       </c>
       <c r="Q83" s="3">
         <v>3200</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5300</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
         <v>5300</v>
       </c>
       <c r="F89" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G89" s="3">
         <v>6500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>20200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>5700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,13 +6251,14 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="E96" s="3">
         <v>-1800</v>
@@ -6036,28 +6270,28 @@
         <v>-1800</v>
       </c>
       <c r="H96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1800</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1700</v>
       </c>
       <c r="M96" s="3">
         <v>-1700</v>
       </c>
       <c r="N96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="O96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1600</v>
       </c>
       <c r="P96" s="3">
         <v>-1600</v>
@@ -6072,7 +6306,7 @@
         <v>-1600</v>
       </c>
       <c r="T96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="U96" s="3">
         <v>-1500</v>
@@ -6084,10 +6318,13 @@
         <v>-1500</v>
       </c>
       <c r="X96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-1700</v>
       </c>
       <c r="M100" s="3">
         <v>-1700</v>
       </c>
       <c r="N100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="O100" s="3">
         <v>-6500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-100</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M101" s="3">
         <v>100</v>
       </c>
       <c r="N101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="3">
         <v>-100</v>
       </c>
       <c r="R101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
       <c r="W101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>20300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>ODC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E8" s="3">
         <v>82500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>78100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>76300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>74500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>76100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>64800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>76300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>142100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>71100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>70100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>70900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>136000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>66100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>65600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>64800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>68900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>66600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>65800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>64700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>65200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>66600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E9" s="3">
         <v>68600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>67900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>59700</v>
       </c>
-      <c r="G9" s="3">
-        <v>56300</v>
-      </c>
       <c r="H9" s="3">
+        <v>57800</v>
+      </c>
+      <c r="I9" s="3">
         <v>55800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>56400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>54900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>103200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>51200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>52700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>54100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>104600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>50100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>50000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>47200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>49200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>47700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>49700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>47000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>46000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>45900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E10" s="3">
         <v>13900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>16600</v>
       </c>
-      <c r="G10" s="3">
-        <v>18200</v>
-      </c>
       <c r="H10" s="3">
+        <v>16700</v>
+      </c>
+      <c r="I10" s="3">
         <v>20300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>21400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>31400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>16000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>15600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>17600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>19700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>18900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>16100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>17700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>19200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>20700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E17" s="3">
         <v>82000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>76400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>74300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>70900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>55700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>70600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>132100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>67000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>65900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>68600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>132200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>65100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>62700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>61600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>63700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>62400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>62900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>61000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>59600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>63600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,34 +1515,35 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -1518,119 +1552,125 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>4500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-100</v>
       </c>
       <c r="X20" s="3">
         <v>-100</v>
       </c>
       <c r="Y20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>6100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1648,34 +1688,34 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
@@ -1690,155 +1730,164 @@
         <v>200</v>
       </c>
       <c r="X22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="E26" s="3">
         <v>600</v>
       </c>
       <c r="F26" s="3">
+        <v>600</v>
+      </c>
+      <c r="G26" s="3">
         <v>2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="E27" s="3">
         <v>600</v>
       </c>
       <c r="F27" s="3">
+        <v>600</v>
+      </c>
+      <c r="G27" s="3">
         <v>2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2150,8 +2211,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2165,20 +2226,20 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>1100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-5100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,34 +2401,37 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
@@ -2370,114 +2440,120 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-4500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
-      </c>
-      <c r="W32" s="3">
-        <v>100</v>
       </c>
       <c r="X32" s="3">
         <v>100</v>
       </c>
       <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="E33" s="3">
         <v>600</v>
       </c>
       <c r="F33" s="3">
+        <v>600</v>
+      </c>
+      <c r="G33" s="3">
         <v>2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="E35" s="3">
         <v>600</v>
       </c>
       <c r="F35" s="3">
+        <v>600</v>
+      </c>
+      <c r="G35" s="3">
         <v>2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E41" s="3">
         <v>13100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>40900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>17600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>16000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2855,327 +2945,342 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>21900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>18100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>23600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>18700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>7400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>5400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E43" s="3">
         <v>43100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>40900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>39100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>38900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>39200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>34900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>41800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>36300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>35500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>35900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>38300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>39900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>33600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>32600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>32300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>32100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>32800</v>
-      </c>
-      <c r="V43" s="3">
-        <v>32000</v>
       </c>
       <c r="W43" s="3">
         <v>32000</v>
       </c>
       <c r="X43" s="3">
+        <v>32000</v>
+      </c>
+      <c r="Y43" s="3">
         <v>31000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E44" s="3">
         <v>28700</v>
-      </c>
-      <c r="E44" s="3">
-        <v>23600</v>
       </c>
       <c r="F44" s="3">
         <v>23600</v>
       </c>
       <c r="G44" s="3">
+        <v>23600</v>
+      </c>
+      <c r="H44" s="3">
         <v>23700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>23500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>23900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>24100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>23800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>24200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>26700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>28100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>25400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>22500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>23400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>22600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>22800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>22600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>23800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>23200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>23600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E45" s="3">
         <v>12700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>6200</v>
       </c>
       <c r="L45" s="3">
         <v>6200</v>
       </c>
       <c r="M45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="N45" s="3">
         <v>7800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>10000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>10100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>116800</v>
+      </c>
+      <c r="E46" s="3">
         <v>97500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>101900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>103900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>102800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>102300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>108400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>94100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>86200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>85500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>89300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>86800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>82300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>85200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>83000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>87100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>94200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>88900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>94200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>98100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>92800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>86000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,79 +3350,85 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E48" s="3">
         <v>106900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>104600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>100300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>100400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>100300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>102800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>98500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>98400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>99200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>90800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>87100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>86200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>87300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>86700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>84800</v>
-      </c>
-      <c r="S48" s="3">
-        <v>84300</v>
       </c>
       <c r="T48" s="3">
         <v>84300</v>
       </c>
       <c r="U48" s="3">
+        <v>84300</v>
+      </c>
+      <c r="V48" s="3">
         <v>84000</v>
-      </c>
-      <c r="V48" s="3">
-        <v>81500</v>
       </c>
       <c r="W48" s="3">
         <v>81500</v>
       </c>
       <c r="X48" s="3">
+        <v>81500</v>
+      </c>
+      <c r="Y48" s="3">
         <v>81700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3325,70 +3436,73 @@
         <v>11400</v>
       </c>
       <c r="E49" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F49" s="3">
         <v>11500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>11600</v>
       </c>
       <c r="G49" s="3">
         <v>11600</v>
       </c>
       <c r="H49" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="I49" s="3">
         <v>11700</v>
       </c>
       <c r="J49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K49" s="3">
         <v>11900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12200</v>
-      </c>
-      <c r="M49" s="3">
-        <v>12300</v>
       </c>
       <c r="N49" s="3">
         <v>12300</v>
       </c>
       <c r="O49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="P49" s="3">
         <v>12400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>13000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>13300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>13400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>13600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>13800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>14100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E52" s="3">
         <v>8100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>11500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>20500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>20900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>18500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>18300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>247200</v>
+      </c>
+      <c r="E54" s="3">
         <v>223900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>227600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>229600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>228200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>227400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>235900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>216000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>209100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>209700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>205200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>198500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>193100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>197000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>194700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>198000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>205500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>206900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>212600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>212100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>206600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>200100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +3926,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E57" s="3">
         <v>10200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>8100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3891,7 +4025,7 @@
         <v>1000</v>
       </c>
       <c r="J58" s="3">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="K58" s="3">
         <v>3100</v>
@@ -3915,10 +4049,10 @@
         <v>3100</v>
       </c>
       <c r="R58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S58" s="3">
         <v>9100</v>
-      </c>
-      <c r="S58" s="3">
-        <v>3100</v>
       </c>
       <c r="T58" s="3">
         <v>3100</v>
@@ -3938,161 +4072,170 @@
       <c r="Y58" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E59" s="3">
         <v>27300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>22200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>20300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>21600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>19100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E60" s="3">
         <v>38500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>39000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>35900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>46200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>40900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>30000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>35700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>30900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>35700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>33300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>27700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>33000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>32800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>29500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>27300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7900</v>
+        <v>32800</v>
       </c>
       <c r="E61" s="3">
         <v>7900</v>
       </c>
       <c r="F61" s="3">
-        <v>8900</v>
+        <v>7900</v>
       </c>
       <c r="G61" s="3">
         <v>8900</v>
@@ -4101,11 +4244,11 @@
         <v>8900</v>
       </c>
       <c r="I61" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J61" s="3">
         <v>8800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4113,10 +4256,10 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>3100</v>
-      </c>
-      <c r="N61" s="3">
-        <v>3000</v>
       </c>
       <c r="O61" s="3">
         <v>3000</v>
@@ -4125,7 +4268,7 @@
         <v>3000</v>
       </c>
       <c r="Q61" s="3">
-        <v>6100</v>
+        <v>3000</v>
       </c>
       <c r="R61" s="3">
         <v>6100</v>
@@ -4137,93 +4280,99 @@
         <v>6100</v>
       </c>
       <c r="U61" s="3">
-        <v>9200</v>
+        <v>6100</v>
       </c>
       <c r="V61" s="3">
         <v>9200</v>
       </c>
       <c r="W61" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="X61" s="3">
         <v>9100</v>
       </c>
       <c r="Y61" s="3">
+        <v>9100</v>
+      </c>
+      <c r="Z61" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E62" s="3">
         <v>21200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>31900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>32000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>33700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>32900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>28400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>28600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>41800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>26400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>26200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>26400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>27200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>39800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>45000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>44400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>47300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>47400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>46800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>93600</v>
+      </c>
+      <c r="E66" s="3">
         <v>67300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>68000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>76400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>75500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>76800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>87700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>69200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>71700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>69700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>60900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>60400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>65200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>62800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>69000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>79300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>78800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>86500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>89300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>86100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>83300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>179300</v>
+      </c>
+      <c r="E72" s="3">
         <v>179200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>180400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>181700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>181300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>178800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>176600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>172500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>169600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>166500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>164800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>162700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>158800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>158200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>158900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>157900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>153600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>156200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>154700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>155000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>153200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>150500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>149900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>153600</v>
+      </c>
+      <c r="E76" s="3">
         <v>156600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>159500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>153200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>152700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>150500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>148100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>146800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>147100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>138000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>135600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>137600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>132800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>131800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>131900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>129000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>126300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>128100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>126000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>122800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>120500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>116800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="E81" s="3">
         <v>600</v>
       </c>
       <c r="F81" s="3">
+        <v>600</v>
+      </c>
+      <c r="G81" s="3">
         <v>2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,25 +5615,26 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="E83" s="3">
         <v>3500</v>
       </c>
       <c r="F83" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G83" s="3">
         <v>3600</v>
       </c>
       <c r="H83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I83" s="3">
         <v>3500</v>
@@ -5444,25 +5643,25 @@
         <v>3500</v>
       </c>
       <c r="K83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L83" s="3">
         <v>6900</v>
-      </c>
-      <c r="L83" s="3">
-        <v>3500</v>
       </c>
       <c r="M83" s="3">
         <v>3500</v>
       </c>
       <c r="N83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O83" s="3">
         <v>3300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3300</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>3200</v>
       </c>
       <c r="R83" s="3">
         <v>3200</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
-      </c>
-      <c r="E89" s="3">
-        <v>5300</v>
       </c>
       <c r="F89" s="3">
         <v>5300</v>
       </c>
       <c r="G89" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H89" s="3">
         <v>6500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>11900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6261,7 +6495,7 @@
         <v>-1900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="F96" s="3">
         <v>-1800</v>
@@ -6273,28 +6507,28 @@
         <v>-1800</v>
       </c>
       <c r="I96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1700</v>
       </c>
       <c r="N96" s="3">
         <v>-1700</v>
       </c>
       <c r="O96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1600</v>
       </c>
       <c r="Q96" s="3">
         <v>-1600</v>
@@ -6309,7 +6543,7 @@
         <v>-1600</v>
       </c>
       <c r="U96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="V96" s="3">
         <v>-1500</v>
@@ -6321,10 +6555,13 @@
         <v>-1500</v>
       </c>
       <c r="Y96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5300</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-1700</v>
       </c>
       <c r="N100" s="3">
         <v>-1700</v>
       </c>
       <c r="O100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P100" s="3">
         <v>-6500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6616,137 +6865,143 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-100</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
       </c>
       <c r="M101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N101" s="3">
         <v>100</v>
       </c>
       <c r="O101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R101" s="3">
         <v>-100</v>
       </c>
       <c r="S101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
       <c r="X101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>20300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>ODC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,346 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E8" s="3">
         <v>87200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>82500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>78100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>76300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>74500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>76100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>64800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>76300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>142100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>71100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>70100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>70900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>136000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>66100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>65600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>64800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>68900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>66600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>65800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>64700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>65200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>66600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E9" s="3">
         <v>71600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>68600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>67900</v>
       </c>
-      <c r="G9" s="3">
-        <v>59700</v>
-      </c>
       <c r="H9" s="3">
+        <v>61300</v>
+      </c>
+      <c r="I9" s="3">
         <v>57800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>55800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>56400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>54900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>103200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>51200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>52700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>54100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>104600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>50100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>50000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>47200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>49200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>47700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>49700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>47000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>46000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>45900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E10" s="3">
         <v>15600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10200</v>
       </c>
-      <c r="G10" s="3">
-        <v>16600</v>
-      </c>
       <c r="H10" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I10" s="3">
         <v>16700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>16800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>31400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>16000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>15600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>17600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>19700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>18900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>16100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>17700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>19200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>20700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,31 +1183,34 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>5600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1241,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>89800</v>
+      </c>
+      <c r="E17" s="3">
         <v>85300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>82000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>76400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>74300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>70300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>55700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>70600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>132100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>67000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>65900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>68600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>132200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>65100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>62700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>61600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>63700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>62400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>62900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>61000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>59600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>63600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,37 +1548,38 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
@@ -1555,125 +1588,131 @@
         <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>4500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-100</v>
       </c>
       <c r="Y20" s="3">
         <v>-100</v>
       </c>
       <c r="Z20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>6000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>6100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1691,34 +1730,34 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
@@ -1733,161 +1772,170 @@
         <v>200</v>
       </c>
       <c r="Y22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E23" s="3">
         <v>2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>2000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>600</v>
       </c>
       <c r="F26" s="3">
         <v>600</v>
       </c>
       <c r="G26" s="3">
+        <v>600</v>
+      </c>
+      <c r="H26" s="3">
         <v>2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>2000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>600</v>
       </c>
       <c r="F27" s="3">
         <v>600</v>
       </c>
       <c r="G27" s="3">
+        <v>600</v>
+      </c>
+      <c r="H27" s="3">
         <v>2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2214,8 +2274,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2229,20 +2289,20 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>1100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-5100</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,37 +2470,40 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
@@ -2443,117 +2512,123 @@
         <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-4500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
-      </c>
-      <c r="X32" s="3">
-        <v>100</v>
       </c>
       <c r="Y32" s="3">
         <v>100</v>
       </c>
       <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>2000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>600</v>
       </c>
       <c r="F33" s="3">
         <v>600</v>
       </c>
       <c r="G33" s="3">
+        <v>600</v>
+      </c>
+      <c r="H33" s="3">
         <v>2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>2000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>600</v>
       </c>
       <c r="F35" s="3">
         <v>600</v>
       </c>
       <c r="G35" s="3">
+        <v>600</v>
+      </c>
+      <c r="H35" s="3">
         <v>2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E41" s="3">
         <v>29000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>40900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>17600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>16000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2948,339 +3037,354 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>21900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>18100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>23600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>18700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>7400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>5400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E43" s="3">
         <v>46000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>43100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>40900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>38900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>39200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>34900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>41800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>35700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>36300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>35500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>35900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>38300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>39900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>33600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>32600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>32300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>32100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>32800</v>
-      </c>
-      <c r="W43" s="3">
-        <v>32000</v>
       </c>
       <c r="X43" s="3">
         <v>32000</v>
       </c>
       <c r="Y43" s="3">
+        <v>32000</v>
+      </c>
+      <c r="Z43" s="3">
         <v>31000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E44" s="3">
         <v>29800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>28700</v>
-      </c>
-      <c r="F44" s="3">
-        <v>23600</v>
       </c>
       <c r="G44" s="3">
         <v>23600</v>
       </c>
       <c r="H44" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I44" s="3">
         <v>23700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>23500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>23900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>24100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>22700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>23800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>24200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>26700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>28100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>25400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>22500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>23400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>22600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>22800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>22600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>23800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>23200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>23600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E45" s="3">
         <v>12000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7600</v>
-      </c>
-      <c r="L45" s="3">
-        <v>6200</v>
       </c>
       <c r="M45" s="3">
         <v>6200</v>
       </c>
       <c r="N45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="O45" s="3">
         <v>7800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>10000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>12600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>10100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E46" s="3">
         <v>116800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>97500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>101900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>103900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>102800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>102300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>108400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>94100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>86200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>85500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>89300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>86800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>82300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>85200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>83000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>87100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>94200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>88900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>94200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>98100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>92800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>86000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,156 +3457,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>112200</v>
+      </c>
+      <c r="E48" s="3">
         <v>110400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>106900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>104600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>100300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>100400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>100300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>102800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>98500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>98400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>99200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>90800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>87100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>86200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>87300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>86700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>84800</v>
-      </c>
-      <c r="T48" s="3">
-        <v>84300</v>
       </c>
       <c r="U48" s="3">
         <v>84300</v>
       </c>
       <c r="V48" s="3">
+        <v>84300</v>
+      </c>
+      <c r="W48" s="3">
         <v>84000</v>
-      </c>
-      <c r="W48" s="3">
-        <v>81500</v>
       </c>
       <c r="X48" s="3">
         <v>81500</v>
       </c>
       <c r="Y48" s="3">
+        <v>81500</v>
+      </c>
+      <c r="Z48" s="3">
         <v>81700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11400</v>
+        <v>5300</v>
       </c>
       <c r="E49" s="3">
         <v>11400</v>
       </c>
       <c r="F49" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G49" s="3">
         <v>11500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>11600</v>
       </c>
       <c r="H49" s="3">
         <v>11600</v>
       </c>
       <c r="I49" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="J49" s="3">
         <v>11700</v>
       </c>
       <c r="K49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="L49" s="3">
         <v>11900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12200</v>
-      </c>
-      <c r="N49" s="3">
-        <v>12300</v>
       </c>
       <c r="O49" s="3">
         <v>12300</v>
       </c>
       <c r="P49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="Q49" s="3">
         <v>12400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>13000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>13300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>13400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>13600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>13800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>14100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E52" s="3">
         <v>8700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>20500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>20900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>18800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>18500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>18300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>241500</v>
+      </c>
+      <c r="E54" s="3">
         <v>247200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>223900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>227600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>229600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>228200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>227400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>235900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>216000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>209100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>209700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>205200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>198500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>193100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>197000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>194700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>198000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>205500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>206900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>212600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>212100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>206600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>200100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3936,73 +4066,76 @@
         <v>10100</v>
       </c>
       <c r="E57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F57" s="3">
         <v>10200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4028,7 +4161,7 @@
         <v>1000</v>
       </c>
       <c r="K58" s="3">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="L58" s="3">
         <v>3100</v>
@@ -4052,10 +4185,10 @@
         <v>3100</v>
       </c>
       <c r="S58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T58" s="3">
         <v>9100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>3100</v>
       </c>
       <c r="U58" s="3">
         <v>3100</v>
@@ -4075,156 +4208,165 @@
       <c r="Z58" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E59" s="3">
         <v>27700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>20100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>18900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>22200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>16800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>20300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>21600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>19100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E60" s="3">
         <v>38900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>38500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>39000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>35900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>46200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>33500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>30000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>31100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>35700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>30900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>35700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>33300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>27700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>33000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>32800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>29500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>27300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4232,13 +4374,13 @@
         <v>32800</v>
       </c>
       <c r="E61" s="3">
-        <v>7900</v>
+        <v>32800</v>
       </c>
       <c r="F61" s="3">
         <v>7900</v>
       </c>
       <c r="G61" s="3">
-        <v>8900</v>
+        <v>7900</v>
       </c>
       <c r="H61" s="3">
         <v>8900</v>
@@ -4247,11 +4389,11 @@
         <v>8900</v>
       </c>
       <c r="J61" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K61" s="3">
         <v>8800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4259,10 +4401,10 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>3100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>3000</v>
       </c>
       <c r="P61" s="3">
         <v>3000</v>
@@ -4271,7 +4413,7 @@
         <v>3000</v>
       </c>
       <c r="R61" s="3">
-        <v>6100</v>
+        <v>3000</v>
       </c>
       <c r="S61" s="3">
         <v>6100</v>
@@ -4283,96 +4425,102 @@
         <v>6100</v>
       </c>
       <c r="V61" s="3">
-        <v>9200</v>
+        <v>6100</v>
       </c>
       <c r="W61" s="3">
         <v>9200</v>
       </c>
       <c r="X61" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="Y61" s="3">
         <v>9100</v>
       </c>
       <c r="Z61" s="3">
+        <v>9100</v>
+      </c>
+      <c r="AA61" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E62" s="3">
         <v>22300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>31900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>32000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>33700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>32900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>28400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>41800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>34000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>26400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>26200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>26400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>27200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>39800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>45000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>44400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>47300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>47400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>46800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>95300</v>
+      </c>
+      <c r="E66" s="3">
         <v>93600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>67300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>68000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>76400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>75500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>76800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>87700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>69200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>71700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>69700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>60900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>60400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>65200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>62800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>69000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>79300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>78800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>86500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>89300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>86100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>83300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>175400</v>
+      </c>
+      <c r="E72" s="3">
         <v>179300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>179200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>180400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>181700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>181300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>178800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>176600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>172500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>169600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>166500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>164800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>162700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>158800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>158200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>158900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>157900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>153600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>156200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>154700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>155000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>153200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>150500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>149900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E76" s="3">
         <v>153600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>156600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>159500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>153200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>152700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>150500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>148100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>146800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>147100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>138000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>135600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>137600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>132800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>131800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>131900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>129000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>126300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>128100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>126000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>122800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>120500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>116800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>2000</v>
-      </c>
-      <c r="E81" s="3">
-        <v>600</v>
       </c>
       <c r="F81" s="3">
         <v>600</v>
       </c>
       <c r="G81" s="3">
+        <v>600</v>
+      </c>
+      <c r="H81" s="3">
         <v>2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5625,19 +5823,19 @@
         <v>3300</v>
       </c>
       <c r="E83" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="F83" s="3">
         <v>3500</v>
       </c>
       <c r="G83" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H83" s="3">
         <v>3600</v>
       </c>
       <c r="I83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J83" s="3">
         <v>3500</v>
@@ -5646,25 +5844,25 @@
         <v>3500</v>
       </c>
       <c r="L83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M83" s="3">
         <v>6900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>3500</v>
       </c>
       <c r="N83" s="3">
         <v>3500</v>
       </c>
       <c r="O83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P83" s="3">
         <v>3300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3300</v>
-      </c>
-      <c r="R83" s="3">
-        <v>3200</v>
       </c>
       <c r="S83" s="3">
         <v>3200</v>
@@ -5690,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>5300</v>
       </c>
       <c r="G89" s="3">
         <v>5300</v>
       </c>
       <c r="H89" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I89" s="3">
         <v>6500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>11900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-14400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,19 +6718,20 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="E96" s="3">
         <v>-1900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G96" s="3">
         <v>-1800</v>
@@ -6510,28 +6743,28 @@
         <v>-1800</v>
       </c>
       <c r="J96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1800</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-1700</v>
       </c>
       <c r="O96" s="3">
         <v>-1700</v>
       </c>
       <c r="P96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1600</v>
       </c>
       <c r="R96" s="3">
         <v>-1600</v>
@@ -6546,7 +6779,7 @@
         <v>-1600</v>
       </c>
       <c r="V96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="W96" s="3">
         <v>-1500</v>
@@ -6558,10 +6791,13 @@
         <v>-1500</v>
       </c>
       <c r="Z96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E100" s="3">
         <v>19100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5300</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-1700</v>
       </c>
       <c r="O100" s="3">
         <v>-1700</v>
       </c>
       <c r="P100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6868,140 +7116,146 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-100</v>
       </c>
       <c r="M101" s="3">
         <v>-100</v>
       </c>
       <c r="N101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O101" s="3">
         <v>100</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S101" s="3">
         <v>-100</v>
       </c>
       <c r="T101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
       <c r="Y101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E102" s="3">
         <v>16000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>20300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>ODC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>93200</v>
+      </c>
+      <c r="E8" s="3">
         <v>85800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>87200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>82500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>78100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>76300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>74500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>76100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>64800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>76300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>142100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>71100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>70100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>70900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>136000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>66100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>65600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>64800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>68900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>66600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>65800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>64700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>65200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>66600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E9" s="3">
         <v>70100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>71600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>68600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>67900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>61300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>57800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>55800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>56400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>54900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>103200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>51200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>52700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>54100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>104600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>50100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>50000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>47200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>49200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>47700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>49700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>47000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>46000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>45900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E10" s="3">
         <v>15700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>15600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>13900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>21400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>16800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>31400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>16000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>15600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>17600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>19700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>18900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>16100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>17700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>19200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>20700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,16 +1203,19 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>5600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1203,17 +1223,17 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>86700</v>
+      </c>
+      <c r="E17" s="3">
         <v>89800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>85300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>82000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>76400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>74300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>70900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>55700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>70600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>132100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>67000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>65900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>68600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>132200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>65100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>62700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>61600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>63700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>62400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>62900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>61000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>59600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>63600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>5600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,40 +1582,41 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
@@ -1591,120 +1625,126 @@
         <v>100</v>
       </c>
       <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-100</v>
       </c>
       <c r="Z20" s="3">
         <v>-100</v>
       </c>
       <c r="AA20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>8700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>6100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1712,10 +1752,10 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1733,34 +1773,34 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
@@ -1775,167 +1815,176 @@
         <v>200</v>
       </c>
       <c r="Z22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>600</v>
       </c>
       <c r="G26" s="3">
         <v>600</v>
       </c>
       <c r="H26" s="3">
+        <v>600</v>
+      </c>
+      <c r="I26" s="3">
         <v>2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>600</v>
       </c>
       <c r="G27" s="3">
         <v>600</v>
       </c>
       <c r="H27" s="3">
+        <v>600</v>
+      </c>
+      <c r="I27" s="3">
         <v>2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2277,8 +2338,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2292,20 +2353,20 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>1100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-5100</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,40 +2540,43 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
@@ -2515,120 +2585,126 @@
         <v>-100</v>
       </c>
       <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>100</v>
       </c>
       <c r="Z32" s="3">
         <v>100</v>
       </c>
       <c r="AA32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>600</v>
       </c>
       <c r="G33" s="3">
         <v>600</v>
       </c>
       <c r="H33" s="3">
+        <v>600</v>
+      </c>
+      <c r="I33" s="3">
         <v>2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>600</v>
       </c>
       <c r="G35" s="3">
         <v>600</v>
       </c>
       <c r="H35" s="3">
+        <v>600</v>
+      </c>
+      <c r="I35" s="3">
         <v>2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E41" s="3">
         <v>22800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>40900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>17600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>16000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3040,351 +3130,366 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>21900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>18100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>23600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>18700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>7400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>5400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E43" s="3">
         <v>43300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>46000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>43100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>40900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>39100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>38900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>39200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>41800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>35700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>36300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>35500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>35900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>38300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>39900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>33600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>32600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>32300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>32100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>32800</v>
-      </c>
-      <c r="X43" s="3">
-        <v>32000</v>
       </c>
       <c r="Y43" s="3">
         <v>32000</v>
       </c>
       <c r="Z43" s="3">
+        <v>32000</v>
+      </c>
+      <c r="AA43" s="3">
         <v>31000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E44" s="3">
         <v>35000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>29800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>28700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>23600</v>
       </c>
       <c r="H44" s="3">
         <v>23600</v>
       </c>
       <c r="I44" s="3">
+        <v>23600</v>
+      </c>
+      <c r="J44" s="3">
         <v>23700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>23500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>23900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>24100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>22700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>23800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>24200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>26700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>28100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>25400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>22500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>23400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>22600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>22800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>22600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>23800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>23200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>23600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E45" s="3">
         <v>12600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7600</v>
-      </c>
-      <c r="M45" s="3">
-        <v>6200</v>
       </c>
       <c r="N45" s="3">
         <v>6200</v>
       </c>
       <c r="O45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="P45" s="3">
         <v>7800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>10000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>12600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>10100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E46" s="3">
         <v>113700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>116800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>97500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>101900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>103900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>102800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>102300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>108400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>94100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>86200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>85500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>89300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>86800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>82300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>85200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>83000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>87100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>94200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>88900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>94200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>98100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>92800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>86000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,162 +3565,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E48" s="3">
         <v>112200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>110400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>106900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>104600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>100300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>100400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>100300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>102800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>98500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>98400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>99200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>90800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>87100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>86200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>87300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>86700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>84800</v>
-      </c>
-      <c r="U48" s="3">
-        <v>84300</v>
       </c>
       <c r="V48" s="3">
         <v>84300</v>
       </c>
       <c r="W48" s="3">
+        <v>84300</v>
+      </c>
+      <c r="X48" s="3">
         <v>84000</v>
-      </c>
-      <c r="X48" s="3">
-        <v>81500</v>
       </c>
       <c r="Y48" s="3">
         <v>81500</v>
       </c>
       <c r="Z48" s="3">
+        <v>81500</v>
+      </c>
+      <c r="AA48" s="3">
         <v>81700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E49" s="3">
         <v>5300</v>
-      </c>
-      <c r="E49" s="3">
-        <v>11400</v>
       </c>
       <c r="F49" s="3">
         <v>11400</v>
       </c>
       <c r="G49" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H49" s="3">
         <v>11500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>11600</v>
       </c>
       <c r="I49" s="3">
         <v>11600</v>
       </c>
       <c r="J49" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="K49" s="3">
         <v>11700</v>
       </c>
       <c r="L49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="M49" s="3">
         <v>11900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12200</v>
-      </c>
-      <c r="O49" s="3">
-        <v>12300</v>
       </c>
       <c r="P49" s="3">
         <v>12300</v>
       </c>
       <c r="Q49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="R49" s="3">
         <v>12400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>13000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>13300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>13400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>13600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>13800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>14100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E52" s="3">
         <v>10200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>13300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>14000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>20500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>20900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>18800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>18500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>18300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>249600</v>
+      </c>
+      <c r="E54" s="3">
         <v>241500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>247200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>223900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>227600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>229600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>228200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>227400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>235900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>216000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>209100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>209700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>205200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>198500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>193100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>197000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>194700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>198000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>205500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>206900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>212600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>212100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>206600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>200100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10100</v>
+        <v>13400</v>
       </c>
       <c r="E57" s="3">
         <v>10100</v>
       </c>
       <c r="F57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G57" s="3">
         <v>10200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>7300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4164,7 +4298,7 @@
         <v>1000</v>
       </c>
       <c r="L58" s="3">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="M58" s="3">
         <v>3100</v>
@@ -4188,10 +4322,10 @@
         <v>3100</v>
       </c>
       <c r="T58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U58" s="3">
         <v>9100</v>
-      </c>
-      <c r="U58" s="3">
-        <v>3100</v>
       </c>
       <c r="V58" s="3">
         <v>3100</v>
@@ -4211,179 +4345,188 @@
       <c r="AA58" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E59" s="3">
         <v>30300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>20100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>18900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>22200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>16800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>20300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>21600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>19100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E60" s="3">
         <v>41400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>38900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>38500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>39000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>35900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>34500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>40900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>33500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>30000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>32600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>31500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>31100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>35700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>30900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>35700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>33300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>27700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>33000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>32800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>29500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>27300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32800</v>
+        <v>31800</v>
       </c>
       <c r="E61" s="3">
         <v>32800</v>
       </c>
       <c r="F61" s="3">
-        <v>7900</v>
+        <v>32800</v>
       </c>
       <c r="G61" s="3">
         <v>7900</v>
       </c>
       <c r="H61" s="3">
-        <v>8900</v>
+        <v>7900</v>
       </c>
       <c r="I61" s="3">
         <v>8900</v>
@@ -4392,11 +4535,11 @@
         <v>8900</v>
       </c>
       <c r="K61" s="3">
+        <v>8900</v>
+      </c>
+      <c r="L61" s="3">
         <v>8800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4404,10 +4547,10 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>3100</v>
-      </c>
-      <c r="P61" s="3">
-        <v>3000</v>
       </c>
       <c r="Q61" s="3">
         <v>3000</v>
@@ -4416,7 +4559,7 @@
         <v>3000</v>
       </c>
       <c r="S61" s="3">
-        <v>6100</v>
+        <v>3000</v>
       </c>
       <c r="T61" s="3">
         <v>6100</v>
@@ -4428,99 +4571,105 @@
         <v>6100</v>
       </c>
       <c r="W61" s="3">
-        <v>9200</v>
+        <v>6100</v>
       </c>
       <c r="X61" s="3">
         <v>9200</v>
       </c>
       <c r="Y61" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="Z61" s="3">
         <v>9100</v>
       </c>
       <c r="AA61" s="3">
+        <v>9100</v>
+      </c>
+      <c r="AB61" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E62" s="3">
         <v>21500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>31900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>32000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>32900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>28600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>41800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>34000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>26400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>26200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>26400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>27200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>39800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>45000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>44400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>47300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>47400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>46800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E66" s="3">
         <v>95300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>93600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>67300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>68000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>76400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>75500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>76800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>87700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>69200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>71700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>60900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>60400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>65200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>62800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>69000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>79300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>78800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>86500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>89300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>86100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>83300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>178800</v>
+      </c>
+      <c r="E72" s="3">
         <v>175400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>179300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>179200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>180400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>181700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>181300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>178800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>176600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>172500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>169600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>166500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>164800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>162700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>158800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>158200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>158900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>157900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>153600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>156200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>154700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>155000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>153200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>150500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>149900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>150700</v>
+      </c>
+      <c r="E76" s="3">
         <v>146100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>153600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>156600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>159500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>153200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>152700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>150500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>148100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>146800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>147100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>138000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>135600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>137600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>132800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>131800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>131900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>129000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>126300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>128100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>126000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>122800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>120500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>116800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>600</v>
       </c>
       <c r="G81" s="3">
         <v>600</v>
       </c>
       <c r="H81" s="3">
+        <v>600</v>
+      </c>
+      <c r="I81" s="3">
         <v>2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,31 +6012,32 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E83" s="3">
         <v>3300</v>
       </c>
       <c r="F83" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="G83" s="3">
         <v>3500</v>
       </c>
       <c r="H83" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I83" s="3">
         <v>3600</v>
       </c>
       <c r="J83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K83" s="3">
         <v>3500</v>
@@ -5847,25 +6046,25 @@
         <v>3500</v>
       </c>
       <c r="M83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N83" s="3">
         <v>6900</v>
-      </c>
-      <c r="N83" s="3">
-        <v>3500</v>
       </c>
       <c r="O83" s="3">
         <v>3500</v>
       </c>
       <c r="P83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3300</v>
-      </c>
-      <c r="S83" s="3">
-        <v>3200</v>
       </c>
       <c r="T83" s="3">
         <v>3200</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E89" s="3">
         <v>5400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
-      </c>
-      <c r="G89" s="3">
-        <v>5300</v>
       </c>
       <c r="H89" s="3">
         <v>5300</v>
       </c>
       <c r="I89" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J89" s="3">
         <v>6500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>11900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-14400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6728,13 +6962,13 @@
         <v>-1800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="F96" s="3">
         <v>-1900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H96" s="3">
         <v>-1800</v>
@@ -6746,28 +6980,28 @@
         <v>-1800</v>
       </c>
       <c r="K96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1800</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1700</v>
       </c>
       <c r="P96" s="3">
         <v>-1700</v>
       </c>
       <c r="Q96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-1600</v>
       </c>
       <c r="S96" s="3">
         <v>-1600</v>
@@ -6782,7 +7016,7 @@
         <v>-1600</v>
       </c>
       <c r="W96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="X96" s="3">
         <v>-1500</v>
@@ -6794,10 +7028,13 @@
         <v>-1500</v>
       </c>
       <c r="AA96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>19100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-1700</v>
       </c>
       <c r="P100" s="3">
         <v>-1700</v>
       </c>
       <c r="Q100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R100" s="3">
         <v>-6500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7119,143 +7368,149 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-100</v>
       </c>
       <c r="N101" s="3">
         <v>-100</v>
       </c>
       <c r="O101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P101" s="3">
         <v>100</v>
       </c>
       <c r="Q101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T101" s="3">
         <v>-100</v>
       </c>
       <c r="U101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
       <c r="Z101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>20300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>ODC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,385 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>98500</v>
+      </c>
+      <c r="F8" s="3">
         <v>93200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>85800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>87200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>82500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>78100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>76300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>74500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>76100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>64800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>76300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>142100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>71100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>70100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>70900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>136000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>66100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>65600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>64800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>68900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>66600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>65800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>64700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>65200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>66600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>76200</v>
+      </c>
+      <c r="F9" s="3">
         <v>75700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>70100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>71600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>68600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>67900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>61300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>57800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>55800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>56400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>54900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>103200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>51200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>52700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>54100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>104600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>50100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>50000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>47200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>49200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>47700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>49700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>47000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>46000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>45900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F10" s="3">
         <v>17500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>15700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>15600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>13900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>10200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>15000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>16700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>20300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>8400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>21400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>38900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>19900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>17400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>16800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>31400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>16000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>15600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>17600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>19700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>18900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>16100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>17700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>19200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>20700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1072,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1154,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,40 +1240,46 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>5600</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1286,8 +1326,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1412,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1445,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>92000</v>
+      </c>
+      <c r="F17" s="3">
         <v>86700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>89800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>85300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>82000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>76400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>74300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>70300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>70900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>55700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>70600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>132100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>67000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>65900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>68600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>132200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>65100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>62700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>61600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>63700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>62400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>62900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>61000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>59600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>63600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>6500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>9100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>5700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>10000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>4200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>3200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>5200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>4200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>2900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>3700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>5600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>3000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1649,182 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-200</v>
       </c>
       <c r="I20" s="3">
         <v>400</v>
       </c>
       <c r="J20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>400</v>
+      </c>
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
-      </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>4500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
-      </c>
-      <c r="V20" s="3">
-        <v>100</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-100</v>
       </c>
       <c r="X20" s="3">
         <v>100</v>
       </c>
       <c r="Y20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>10300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
+        <v>10300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>6000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>4300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>5000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>5900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>8900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>8500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>11300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>9200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>17000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>7600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>7800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>10200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>10500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>4300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>6000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>6600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>8500</v>
-      </c>
-      <c r="W21" s="3">
-        <v>7200</v>
-      </c>
-      <c r="X21" s="3">
-        <v>6200</v>
       </c>
       <c r="Y21" s="3">
         <v>7200</v>
       </c>
       <c r="Z21" s="3">
+        <v>6200</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>7200</v>
+      </c>
+      <c r="AB21" s="3">
         <v>8700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>6100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1755,13 +1835,13 @@
         <v>400</v>
       </c>
       <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1776,7 +1856,7 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1791,22 +1871,22 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>200</v>
+      </c>
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>200</v>
-      </c>
-      <c r="W22" s="3">
-        <v>200</v>
       </c>
       <c r="X22" s="3">
         <v>200</v>
@@ -1818,173 +1898,191 @@
         <v>200</v>
       </c>
       <c r="AA22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC22" s="3">
         <v>300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F23" s="3">
         <v>6500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>7600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>5600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>9800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>4100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>6700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>3300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>5100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>3800</v>
-      </c>
-      <c r="X23" s="3">
-        <v>2900</v>
       </c>
       <c r="Y23" s="3">
         <v>3800</v>
       </c>
       <c r="Z23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>3800</v>
+      </c>
+      <c r="AB23" s="3">
         <v>5200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>2700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>800</v>
-      </c>
       <c r="V24" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="W24" s="3">
         <v>800</v>
       </c>
       <c r="X24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z24" s="3">
         <v>1500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>1000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2161,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>5900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>4700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>8200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>3200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>2500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>4000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>3100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>3200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>4300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>2000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>5900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>4600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>8100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>5400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>2600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>2400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>4000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>3000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>3100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>4200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>2000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2419,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2341,11 +2463,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2356,23 +2478,23 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>1100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-5100</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2505,14 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2591,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2677,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>200</v>
       </c>
       <c r="I32" s="3">
         <v>-400</v>
       </c>
       <c r="J32" s="3">
+        <v>200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
-      </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-4500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W32" s="3">
-        <v>100</v>
       </c>
       <c r="X32" s="3">
         <v>-100</v>
       </c>
       <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>5900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>4600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>8100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>5400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>2600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>3500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>3000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>3100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>4200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>2000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2935,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>5900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>4600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>8100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>5400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>2600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>3500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>3000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>3100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>4200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>2000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3148,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3180,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F41" s="3">
         <v>16300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>22800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>29000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>13100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>24600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>30300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>30700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>31300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>40900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>20500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>21600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>19300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>21900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>16200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>9400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>9000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>12800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>10600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>9400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>8400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>9100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>13600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>17600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>16000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3133,363 +3313,393 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>2700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>7100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>14300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>21900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>18100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>23600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>18700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>7400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>5400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>53100</v>
+      </c>
+      <c r="F43" s="3">
         <v>51700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>43300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>46000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>43100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>40900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>39100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>38900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>39200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>34900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>41800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>35700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>36300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>35500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>35900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>38300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>39900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>33600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>32600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>32300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>32100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>32800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>32000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>32000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>31000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>40400</v>
+      </c>
+      <c r="F44" s="3">
         <v>35600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>35000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>29800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>28700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>23600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>23600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>23700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>23500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>23900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>24100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>22700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>23800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>24200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>26700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>28100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>25400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>22500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>23400</v>
-      </c>
-      <c r="V44" s="3">
-        <v>22600</v>
-      </c>
-      <c r="W44" s="3">
-        <v>22800</v>
       </c>
       <c r="X44" s="3">
         <v>22600</v>
       </c>
       <c r="Y44" s="3">
+        <v>22800</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>22600</v>
+      </c>
+      <c r="AA44" s="3">
         <v>23800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>23200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>23600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F45" s="3">
         <v>11100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>12600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>12000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>12700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>12800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>10900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>8300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>8700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>7600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>6200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>6200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>7800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>7200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>6000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>8200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>7000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>6200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>8000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>7600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>9000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>10000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>12600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>10100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>119600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>114300</v>
+      </c>
+      <c r="F46" s="3">
         <v>114700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>113700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>116800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>97500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>101900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>103900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>102800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>102300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>108400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>94100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>86200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>85500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>89300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>86800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>82300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>85200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>83000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>87100</v>
-      </c>
-      <c r="V46" s="3">
-        <v>94200</v>
-      </c>
-      <c r="W46" s="3">
-        <v>88900</v>
       </c>
       <c r="X46" s="3">
         <v>94200</v>
       </c>
       <c r="Y46" s="3">
+        <v>88900</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>94200</v>
+      </c>
+      <c r="AA46" s="3">
         <v>98100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>92800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>86000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,88 +3778,100 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>121100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>119700</v>
+      </c>
+      <c r="F48" s="3">
         <v>118500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>112200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>110400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>106900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>104600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>100300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>100400</v>
       </c>
       <c r="K48" s="3">
         <v>100300</v>
       </c>
       <c r="L48" s="3">
+        <v>100400</v>
+      </c>
+      <c r="M48" s="3">
+        <v>100300</v>
+      </c>
+      <c r="N48" s="3">
         <v>102800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>98500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>98400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>99200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>90800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>87100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>86200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>87300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>86700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>84800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>84300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>84300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>84000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>81500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>81500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>81700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3657,79 +3879,85 @@
         <v>5200</v>
       </c>
       <c r="E49" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G49" s="3">
         <v>5300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>11400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>11400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>11500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>11600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>11600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>11700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>11700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>11900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>12000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>12200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>12300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>12300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>12400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>12600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>12700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>12800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>13000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>13300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>13400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>13600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>13800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>14100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4036,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4122,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F52" s="3">
         <v>11200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>10200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>9600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>13800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>13400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>13100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>13000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>11500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>12500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>12900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>12800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>12300</v>
-      </c>
-      <c r="R52" s="3">
-        <v>12200</v>
-      </c>
-      <c r="S52" s="3">
-        <v>11800</v>
       </c>
       <c r="T52" s="3">
         <v>12200</v>
       </c>
       <c r="U52" s="3">
+        <v>11800</v>
+      </c>
+      <c r="V52" s="3">
+        <v>12200</v>
+      </c>
+      <c r="W52" s="3">
         <v>13300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>14000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>20500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>20900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>18800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>18500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>18300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4294,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>249100</v>
+      </c>
+      <c r="F54" s="3">
         <v>249600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>241500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>247200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>223900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>227600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>229600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>228200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>227400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>235900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>216000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>209100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>209700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>205200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>198500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>193100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>197000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>194700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>198000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>205500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>206900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>212600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>212100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>206600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>200100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4416,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4448,96 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F57" s="3">
         <v>13400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>10100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>10200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>9200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>6900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>12500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>10500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>9600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>8100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>8600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>7900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>13300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>6500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>7700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>8100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>7800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>9600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>8100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>7300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>6900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4301,10 +4569,10 @@
         <v>1000</v>
       </c>
       <c r="M58" s="3">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="N58" s="3">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="O58" s="3">
         <v>3100</v>
@@ -4325,13 +4593,13 @@
         <v>3100</v>
       </c>
       <c r="U58" s="3">
-        <v>9100</v>
+        <v>3100</v>
       </c>
       <c r="V58" s="3">
         <v>3100</v>
       </c>
       <c r="W58" s="3">
-        <v>3100</v>
+        <v>9100</v>
       </c>
       <c r="X58" s="3">
         <v>3100</v>
@@ -4348,168 +4616,186 @@
       <c r="AB58" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>32200</v>
+      </c>
+      <c r="F59" s="3">
         <v>34100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>30300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>27700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>27300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>28800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>28000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>26700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>23700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>32700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>27300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>20900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>19000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>21400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>19800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>20100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>19300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>21300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>18900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>22200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>16800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>20300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>21600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>19100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>17300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F60" s="3">
         <v>48500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>41400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>38900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>38500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>39000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>35900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>34900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>34500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>46200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>40900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>33500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>30000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>32600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>31500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>31100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>35700</v>
-      </c>
-      <c r="T60" s="3">
-        <v>30900</v>
       </c>
       <c r="U60" s="3">
         <v>35700</v>
       </c>
       <c r="V60" s="3">
+        <v>30900</v>
+      </c>
+      <c r="W60" s="3">
+        <v>35700</v>
+      </c>
+      <c r="X60" s="3">
         <v>33300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>27700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>33000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>32800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>29500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>27300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4517,55 +4803,55 @@
         <v>31800</v>
       </c>
       <c r="E61" s="3">
+        <v>31800</v>
+      </c>
+      <c r="F61" s="3">
+        <v>31800</v>
+      </c>
+      <c r="G61" s="3">
         <v>32800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>32800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7900</v>
-      </c>
-      <c r="I61" s="3">
-        <v>8900</v>
-      </c>
-      <c r="J61" s="3">
-        <v>8900</v>
       </c>
       <c r="K61" s="3">
         <v>8900</v>
       </c>
       <c r="L61" s="3">
+        <v>8900</v>
+      </c>
+      <c r="M61" s="3">
+        <v>8900</v>
+      </c>
+      <c r="N61" s="3">
         <v>8800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>3000</v>
-      </c>
-      <c r="R61" s="3">
-        <v>3000</v>
       </c>
       <c r="S61" s="3">
         <v>3000</v>
       </c>
       <c r="T61" s="3">
-        <v>6100</v>
+        <v>3000</v>
       </c>
       <c r="U61" s="3">
-        <v>6100</v>
+        <v>3000</v>
       </c>
       <c r="V61" s="3">
         <v>6100</v>
@@ -4574,102 +4860,114 @@
         <v>6100</v>
       </c>
       <c r="X61" s="3">
+        <v>6100</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>6100</v>
+      </c>
+      <c r="Z61" s="3">
         <v>9200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>9200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>9100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>9100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F62" s="3">
         <v>18900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>21500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>22300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>21200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>21500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>31900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>32000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>33700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>32900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>28400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>28600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>41800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>34000</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>26400</v>
-      </c>
-      <c r="R62" s="3">
-        <v>26200</v>
       </c>
       <c r="S62" s="3">
         <v>26400</v>
       </c>
       <c r="T62" s="3">
+        <v>26200</v>
+      </c>
+      <c r="U62" s="3">
+        <v>26400</v>
+      </c>
+      <c r="V62" s="3">
         <v>25700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>27200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>39800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>45000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>44400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>47300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>47400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>46800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5046,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5132,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5218,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>94700</v>
+      </c>
+      <c r="F66" s="3">
         <v>98900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>95300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>93600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>67300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>68000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>76400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>75500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>76800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>87700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>69200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>62000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>71700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>69700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>60900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>60400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>65200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>62800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>69000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>79300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>78800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>86500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>89300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>86100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>83300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5340,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5422,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5508,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5594,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5680,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>184100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>182100</v>
+      </c>
+      <c r="F72" s="3">
         <v>178800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>175400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>179300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>179200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>180400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>181700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>181300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>178800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>176600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>172500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>169600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>166500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>164800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>162700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>158800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>158200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>158900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>157900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>153600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>156200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>154700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>155000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>153200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>150500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>149900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5852,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5938,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6024,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>157400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>154400</v>
+      </c>
+      <c r="F76" s="3">
         <v>150700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>146100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>153600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>156600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>159500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>153200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>152700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>150500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>148100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>146800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>147100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>138000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>135600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>137600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>132800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>131800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>131900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>129000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>126300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>128100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>126000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>122800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>120500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>116800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6196,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>5900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>4600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>8100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>5400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>2600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>3500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>3000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>3100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>4200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>2000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,64 +6409,66 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F83" s="3">
         <v>3400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>3600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>3500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>3500</v>
       </c>
       <c r="M83" s="3">
         <v>3500</v>
       </c>
       <c r="N83" s="3">
-        <v>6900</v>
+        <v>3500</v>
       </c>
       <c r="O83" s="3">
         <v>3500</v>
       </c>
       <c r="P83" s="3">
+        <v>6900</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3500</v>
       </c>
-      <c r="Q83" s="3">
-        <v>3300</v>
-      </c>
       <c r="R83" s="3">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="S83" s="3">
         <v>3300</v>
       </c>
       <c r="T83" s="3">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="U83" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="V83" s="3">
         <v>3200</v>
@@ -6093,8 +6491,14 @@
       <c r="AB83" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6577,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6663,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6749,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6835,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6921,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F89" s="3">
         <v>4400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>5400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>5300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>5300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>6500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>20200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>8000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>14300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>6700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>11400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>12700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>2700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>7800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-8800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>9100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>2600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>5900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>11900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>7800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>1300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7043,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-6700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-8100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-3900</v>
       </c>
       <c r="M91" s="3">
         <v>-3600</v>
       </c>
       <c r="N91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="P91" s="3">
         <v>-7300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-4000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-6200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-4100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-4500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-3700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-2800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-4000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-4300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7211,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7297,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-6700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-8100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-7300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-4200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>2000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>5700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-6500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>1400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-14400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,28 +7419,30 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-1800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1800</v>
       </c>
       <c r="J96" s="3">
         <v>-1800</v>
@@ -6983,31 +7451,31 @@
         <v>-1800</v>
       </c>
       <c r="L96" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="M96" s="3">
         <v>-1800</v>
       </c>
       <c r="N96" s="3">
-        <v>-3500</v>
+        <v>-1700</v>
       </c>
       <c r="O96" s="3">
         <v>-1800</v>
       </c>
       <c r="P96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-1700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-1600</v>
       </c>
       <c r="U96" s="3">
         <v>-1600</v>
@@ -7019,10 +7487,10 @@
         <v>-1600</v>
       </c>
       <c r="X96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="Y96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="Z96" s="3">
         <v>-1500</v>
@@ -7031,10 +7499,16 @@
         <v>-1500</v>
       </c>
       <c r="AB96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7587,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7673,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7759,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-6200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>19100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-4200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-2500</v>
       </c>
       <c r="J100" s="3">
         <v>-3000</v>
       </c>
       <c r="K100" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="M100" s="3">
         <v>-2800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-5700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-7100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-5300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-6500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-4800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-7600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>4400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-1600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-4700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-4600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7371,146 +7869,158 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>200</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>200</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
         <v>100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-6500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-6200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>16000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-11500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-5700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-9600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>20300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>5600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>6800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-3400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-3700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>1600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>ODC</t>
   </si>
@@ -1452,8 +1452,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>94400</v>
       </c>
       <c r="E17" s="3">
         <v>92000</v>
@@ -1538,8 +1538,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>7300</v>
       </c>
       <c r="E18" s="3">
         <v>6500</v>
@@ -1656,8 +1656,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-1900</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
@@ -1742,8 +1742,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>9200</v>
       </c>
       <c r="E21" s="3">
         <v>10300</v>
@@ -2172,8 +2172,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>3800</v>
       </c>
       <c r="E26" s="3">
         <v>5200</v>
@@ -2258,8 +2258,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>3900</v>
       </c>
       <c r="E27" s="3">
         <v>5200</v>
@@ -2688,8 +2688,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>1900</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
@@ -2774,8 +2774,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>3900</v>
       </c>
       <c r="E33" s="3">
         <v>5200</v>
@@ -2946,8 +2946,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>3900</v>
       </c>
       <c r="E35" s="3">
         <v>5200</v>
@@ -6298,8 +6298,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>3900</v>
       </c>
       <c r="E81" s="3">
         <v>5200</v>

--- a/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>ODC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,397 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>105400</v>
+      </c>
+      <c r="E8" s="3">
         <v>101700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>98500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>93200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>85800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>87200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>82500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>78100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>76300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>74500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>76100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>64800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>76300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>142100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>71100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>70100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>70900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>136000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>66100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>65600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>64800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>68900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>66600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>65800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>64700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>65200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>66600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E9" s="3">
         <v>78700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>76200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>75700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>70100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>71600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>68600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>67900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>61300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>57800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>55800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>56400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>54900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>103200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>51200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>52700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>54100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>104600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>50100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>50000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>47200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>49200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>47700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>49700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>47000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>46000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>45900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E10" s="3">
         <v>23000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>15700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>17400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>16800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>31400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>16000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>15600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>17600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>19700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>18900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>16100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>17700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>19200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>20700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,25 +1262,28 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>4900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>5600</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1272,17 +1291,17 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1332,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E17" s="3">
         <v>94400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>92000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>86700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>89800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>85300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>82000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>76400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>74300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>70300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>70900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>55700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>70600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>132100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>67000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>65900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>68600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>132200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>65100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>62700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>61600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>63700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>62400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>62900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>61000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>59600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>63600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E18" s="3">
         <v>7300</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6500</v>
       </c>
       <c r="F18" s="3">
         <v>6500</v>
       </c>
       <c r="G18" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-4000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>5600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,49 +1683,50 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E20" s="3">
-        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>300</v>
       </c>
       <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
@@ -1702,129 +1735,135 @@
         <v>100</v>
       </c>
       <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
         <v>4500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>300</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>-100</v>
       </c>
       <c r="AC20" s="3">
         <v>-100</v>
       </c>
       <c r="AD20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E21" s="3">
         <v>9200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>10300</v>
       </c>
       <c r="F21" s="3">
         <v>10300</v>
       </c>
       <c r="G21" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>17000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>7200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>6200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>7200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>8700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>6100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1841,10 +1880,10 @@
         <v>400</v>
       </c>
       <c r="H22" s="3">
+        <v>400</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1862,34 +1901,34 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
       </c>
       <c r="X22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="3">
         <v>200</v>
@@ -1904,185 +1943,194 @@
         <v>200</v>
       </c>
       <c r="AC22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AD22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>5200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E24" s="3">
         <v>1200</v>
       </c>
       <c r="F24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E26" s="3">
         <v>3800</v>
-      </c>
-      <c r="E26" s="3">
-        <v>5200</v>
       </c>
       <c r="F26" s="3">
         <v>5200</v>
       </c>
       <c r="G26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>600</v>
       </c>
       <c r="J26" s="3">
         <v>600</v>
       </c>
       <c r="K26" s="3">
+        <v>600</v>
+      </c>
+      <c r="L26" s="3">
         <v>2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>4300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E27" s="3">
         <v>3900</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5200</v>
       </c>
       <c r="F27" s="3">
         <v>5200</v>
       </c>
       <c r="G27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>600</v>
       </c>
       <c r="J27" s="3">
         <v>600</v>
       </c>
       <c r="K27" s="3">
+        <v>600</v>
+      </c>
+      <c r="L27" s="3">
         <v>2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>4200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2469,8 +2529,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2484,20 +2544,20 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>1100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
+      <c r="Z29" s="3">
+        <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2511,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,49 +2749,52 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1900</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>-300</v>
       </c>
       <c r="G32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
@@ -2734,129 +2803,135 @@
         <v>-100</v>
       </c>
       <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
         <v>-4500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-300</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>100</v>
       </c>
       <c r="AC32" s="3">
         <v>100</v>
       </c>
       <c r="AD32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E33" s="3">
         <v>3900</v>
-      </c>
-      <c r="E33" s="3">
-        <v>5200</v>
       </c>
       <c r="F33" s="3">
         <v>5200</v>
       </c>
       <c r="G33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>600</v>
       </c>
       <c r="J33" s="3">
         <v>600</v>
       </c>
       <c r="K33" s="3">
+        <v>600</v>
+      </c>
+      <c r="L33" s="3">
         <v>2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>4200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E35" s="3">
         <v>3900</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5200</v>
       </c>
       <c r="F35" s="3">
         <v>5200</v>
       </c>
       <c r="G35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>600</v>
       </c>
       <c r="J35" s="3">
         <v>600</v>
       </c>
       <c r="K35" s="3">
+        <v>600</v>
+      </c>
+      <c r="L35" s="3">
         <v>2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>4200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E41" s="3">
         <v>14000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>40900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>13600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>17600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>16000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3319,387 +3408,402 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>21900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>18100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>23600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>18700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>7400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>5400</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E43" s="3">
         <v>57200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>53100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>51700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>43300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>46000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>43100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>40900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>39100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>38900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>39200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>34900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>41800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>35700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>36300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>35500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>35900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>38300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>39900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>33600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>32600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>32300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>32100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>32800</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>32000</v>
       </c>
       <c r="AB43" s="3">
         <v>32000</v>
       </c>
       <c r="AC43" s="3">
+        <v>32000</v>
+      </c>
+      <c r="AD43" s="3">
         <v>31000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E44" s="3">
         <v>37900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>40400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>35600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>35000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>29800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>28700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>23600</v>
       </c>
       <c r="K44" s="3">
         <v>23600</v>
       </c>
       <c r="L44" s="3">
+        <v>23600</v>
+      </c>
+      <c r="M44" s="3">
         <v>23700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>23500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>23900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>24100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>22700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>23800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>24200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>26700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>28100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>25400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>22500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>23400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>22600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>22800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>22600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>23800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>23200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>23600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E45" s="3">
         <v>10500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7600</v>
-      </c>
-      <c r="P45" s="3">
-        <v>6200</v>
       </c>
       <c r="Q45" s="3">
         <v>6200</v>
       </c>
       <c r="R45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="S45" s="3">
         <v>7800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>8000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>7600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>9000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>10000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>12600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>10100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>134100</v>
+      </c>
+      <c r="E46" s="3">
         <v>119600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>114300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>114700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>113700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>116800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>97500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>101900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>103900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>102800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>102300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>108400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>94100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>86200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>85500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>89300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>86800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>82300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>85200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>83000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>87100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>94200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>88900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>94200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>98100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>92800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>86000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3784,99 +3888,105 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E48" s="3">
         <v>121100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>119700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>118500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>112200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>110400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>106900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>104600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>100400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>100300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>102800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>98500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>98400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>99200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>90800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>87100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>86200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>87300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>86700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>84800</v>
-      </c>
-      <c r="X48" s="3">
-        <v>84300</v>
       </c>
       <c r="Y48" s="3">
         <v>84300</v>
       </c>
       <c r="Z48" s="3">
+        <v>84300</v>
+      </c>
+      <c r="AA48" s="3">
         <v>84000</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>81500</v>
       </c>
       <c r="AB48" s="3">
         <v>81500</v>
       </c>
       <c r="AC48" s="3">
+        <v>81500</v>
+      </c>
+      <c r="AD48" s="3">
         <v>81700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="E49" s="3">
         <v>5200</v>
@@ -3885,79 +3995,82 @@
         <v>5200</v>
       </c>
       <c r="G49" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H49" s="3">
         <v>5300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>11400</v>
       </c>
       <c r="I49" s="3">
         <v>11400</v>
       </c>
       <c r="J49" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K49" s="3">
         <v>11500</v>
-      </c>
-      <c r="K49" s="3">
-        <v>11600</v>
       </c>
       <c r="L49" s="3">
         <v>11600</v>
       </c>
       <c r="M49" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="N49" s="3">
         <v>11700</v>
       </c>
       <c r="O49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="P49" s="3">
         <v>11900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12200</v>
-      </c>
-      <c r="R49" s="3">
-        <v>12300</v>
       </c>
       <c r="S49" s="3">
         <v>12300</v>
       </c>
       <c r="T49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="U49" s="3">
         <v>12400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>12700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>12800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>13000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>13300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>13400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>13600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>13800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>14100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E52" s="3">
         <v>10100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>12200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>13300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>14000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>20500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>20900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>18800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>18500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>18300</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>270300</v>
+      </c>
+      <c r="E54" s="3">
         <v>256000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>249100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>249600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>241500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>247200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>223900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>227600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>229600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>228200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>227400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>235900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>216000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>209100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>209700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>205200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>198500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>193100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>197000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>194700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>198000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>205500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>206900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>212600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>212100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>206600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>200100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,94 +4579,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E57" s="3">
         <v>11000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>10100</v>
       </c>
       <c r="H57" s="3">
         <v>10100</v>
       </c>
       <c r="I57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J57" s="3">
         <v>10200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>7800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>8100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>7300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>6900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4575,7 +4708,7 @@
         <v>1000</v>
       </c>
       <c r="O58" s="3">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="P58" s="3">
         <v>3100</v>
@@ -4599,10 +4732,10 @@
         <v>3100</v>
       </c>
       <c r="W58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="X58" s="3">
         <v>9100</v>
-      </c>
-      <c r="X58" s="3">
-        <v>3100</v>
       </c>
       <c r="Y58" s="3">
         <v>3100</v>
@@ -4622,180 +4755,189 @@
       <c r="AD58" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E59" s="3">
         <v>37500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>28800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>26700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>32700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>27300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>20900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>20100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>19300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>21300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>18900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>22200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>16800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>20300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>21600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>19100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>17300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E60" s="3">
         <v>49500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>45300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>48500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>41400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>39000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>35900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>46200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>40900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>33500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>30000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>32600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>31500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>31100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>35700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>30900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>35700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>33300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>27700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>33000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>32800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>29500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>27300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4809,19 +4951,19 @@
         <v>31800</v>
       </c>
       <c r="G61" s="3">
-        <v>32800</v>
+        <v>31800</v>
       </c>
       <c r="H61" s="3">
         <v>32800</v>
       </c>
       <c r="I61" s="3">
-        <v>7900</v>
+        <v>32800</v>
       </c>
       <c r="J61" s="3">
         <v>7900</v>
       </c>
       <c r="K61" s="3">
-        <v>8900</v>
+        <v>7900</v>
       </c>
       <c r="L61" s="3">
         <v>8900</v>
@@ -4830,11 +4972,11 @@
         <v>8900</v>
       </c>
       <c r="N61" s="3">
+        <v>8900</v>
+      </c>
+      <c r="O61" s="3">
         <v>8800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4842,10 +4984,10 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>3100</v>
-      </c>
-      <c r="S61" s="3">
-        <v>3000</v>
       </c>
       <c r="T61" s="3">
         <v>3000</v>
@@ -4854,7 +4996,7 @@
         <v>3000</v>
       </c>
       <c r="V61" s="3">
-        <v>6100</v>
+        <v>3000</v>
       </c>
       <c r="W61" s="3">
         <v>6100</v>
@@ -4866,108 +5008,114 @@
         <v>6100</v>
       </c>
       <c r="Z61" s="3">
-        <v>9200</v>
+        <v>6100</v>
       </c>
       <c r="AA61" s="3">
         <v>9200</v>
       </c>
       <c r="AB61" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="AC61" s="3">
         <v>9100</v>
       </c>
       <c r="AD61" s="3">
+        <v>9100</v>
+      </c>
+      <c r="AE61" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E62" s="3">
         <v>17700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>31900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>32000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>33700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>32900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>28400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>28600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>41800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>34000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>26400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>26200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>26400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>25700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>27200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>39800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>45000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>44400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>47300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>47400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>46800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E66" s="3">
         <v>98700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>94700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>98900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>95300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>93600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>67300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>68000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>76400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>75500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>76800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>87700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>62000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>71700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>69700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>60900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>60400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>65200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>62800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>69000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>79300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>78800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>86500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>89300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>86100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>83300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>190800</v>
+      </c>
+      <c r="E72" s="3">
         <v>184100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>182100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>178800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>175400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>179300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>179200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>180400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>181700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>181300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>178800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>176600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>172500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>169600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>166500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>164800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>162700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>158800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>158200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>158900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>157900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>153600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>156200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>154700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>155000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>153200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>150500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>149900</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>167500</v>
+      </c>
+      <c r="E76" s="3">
         <v>157400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>154400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>150700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>146100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>153600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>156600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>159500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>153200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>152700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>150500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>148100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>146800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>147100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>138000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>135600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>137600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>132800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>131800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>131900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>129000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>126300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>128100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>126000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>122800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>120500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>116800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E81" s="3">
         <v>3900</v>
-      </c>
-      <c r="E81" s="3">
-        <v>5200</v>
       </c>
       <c r="F81" s="3">
         <v>5200</v>
       </c>
       <c r="G81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>600</v>
       </c>
       <c r="J81" s="3">
         <v>600</v>
       </c>
       <c r="K81" s="3">
+        <v>600</v>
+      </c>
+      <c r="L81" s="3">
         <v>2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>4200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,40 +6608,41 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E83" s="3">
         <v>3800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3300</v>
       </c>
       <c r="H83" s="3">
         <v>3300</v>
       </c>
       <c r="I83" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="J83" s="3">
         <v>3500</v>
       </c>
       <c r="K83" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="L83" s="3">
         <v>3600</v>
       </c>
       <c r="M83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="N83" s="3">
         <v>3500</v>
@@ -6453,25 +6651,25 @@
         <v>3500</v>
       </c>
       <c r="P83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>6900</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>3500</v>
       </c>
       <c r="R83" s="3">
         <v>3500</v>
       </c>
       <c r="S83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T83" s="3">
         <v>3300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3300</v>
-      </c>
-      <c r="V83" s="3">
-        <v>3200</v>
       </c>
       <c r="W83" s="3">
         <v>3200</v>
@@ -6497,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E89" s="3">
         <v>11200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
-      </c>
-      <c r="J89" s="3">
-        <v>5300</v>
       </c>
       <c r="K89" s="3">
         <v>5300</v>
       </c>
       <c r="L89" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M89" s="3">
         <v>6500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>12700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-8800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>9100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>5900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>11900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>7800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-4300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>5700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-9200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-14400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7433,19 +7666,19 @@
         <v>-1900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G96" s="3">
         <v>-1800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="I96" s="3">
         <v>-1900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="K96" s="3">
         <v>-1800</v>
@@ -7457,28 +7690,28 @@
         <v>-1800</v>
       </c>
       <c r="N96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1800</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-1700</v>
       </c>
       <c r="S96" s="3">
         <v>-1700</v>
       </c>
       <c r="T96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="U96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-1600</v>
       </c>
       <c r="V96" s="3">
         <v>-1600</v>
@@ -7493,7 +7726,7 @@
         <v>-1600</v>
       </c>
       <c r="Z96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="AA96" s="3">
         <v>-1500</v>
@@ -7505,10 +7738,13 @@
         <v>-1500</v>
       </c>
       <c r="AD96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,99 +8007,105 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>19100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5300</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-1700</v>
       </c>
       <c r="S100" s="3">
         <v>-1700</v>
       </c>
       <c r="T100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="U100" s="3">
         <v>-6500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-7600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-4600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -7875,152 +8123,158 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-100</v>
       </c>
       <c r="Q101" s="3">
         <v>-100</v>
       </c>
       <c r="R101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S101" s="3">
         <v>100</v>
       </c>
       <c r="T101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W101" s="3">
         <v>-100</v>
       </c>
       <c r="X101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>100</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
       <c r="AB101" s="3">
         <v>0</v>
       </c>
       <c r="AC101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E102" s="3">
         <v>3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-2600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>ODC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>107400</v>
+      </c>
+      <c r="E8" s="3">
         <v>105400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>101700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>98500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>93200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>85800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>87200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>82500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>78100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>76300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>74500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>76100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>64800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>76300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>142100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>71100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>70100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>70900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>136000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>66100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>65600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>64800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>68900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>66600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>65800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>64700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>65200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>66600</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E9" s="3">
         <v>78000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>78700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>76200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>75700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>70100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>71600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>68600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>67900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>61300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>57800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>55800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>56400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>54900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>103200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>51200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>52700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>54100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>104600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>50100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>50000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>47200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>49200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>47700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>49700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>47000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>46000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>45900</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>46100</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E10" s="3">
         <v>27400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>22300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>15600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>17400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>16800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>31400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>16000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>15600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>17600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>19700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>18900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>16100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>17700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>19200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>20700</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,28 +1282,31 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3">
         <v>4900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>5600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1294,17 +1314,17 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E17" s="3">
         <v>95800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>94400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>92000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>86700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>89800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>85300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>82000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>76400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>74300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>70300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>70900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>55700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>70600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>132100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>67000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>65900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>68600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>132200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>65100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>62700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>61600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>63700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>62400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>62900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>61000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>59600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>63600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E18" s="3">
         <v>9600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6500</v>
       </c>
       <c r="G18" s="3">
         <v>6500</v>
       </c>
       <c r="H18" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-4000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>5200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>4200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>5600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>3000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,52 +1717,53 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>300</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
       </c>
       <c r="H20" s="3">
+        <v>300</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
@@ -1738,132 +1772,138 @@
         <v>100</v>
       </c>
       <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
         <v>4500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>300</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>-100</v>
       </c>
       <c r="AD20" s="3">
         <v>-100</v>
       </c>
       <c r="AE20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E21" s="3">
         <v>14400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>10300</v>
       </c>
       <c r="G21" s="3">
         <v>10300</v>
       </c>
       <c r="H21" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>17000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>10500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>6600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>8500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>7200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>6200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>7200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>8700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>6100</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1883,10 +1923,10 @@
         <v>400</v>
       </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1904,34 +1944,34 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>200</v>
-      </c>
-      <c r="W22" s="3">
-        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
       </c>
       <c r="Y22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z22" s="3">
         <v>200</v>
@@ -1946,191 +1986,200 @@
         <v>200</v>
       </c>
       <c r="AD22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AE22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E23" s="3">
         <v>10000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>5200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1200</v>
       </c>
       <c r="F24" s="3">
         <v>1200</v>
       </c>
       <c r="G24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>700</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E26" s="3">
         <v>8500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5200</v>
       </c>
       <c r="G26" s="3">
         <v>5200</v>
       </c>
       <c r="H26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>600</v>
       </c>
       <c r="K26" s="3">
         <v>600</v>
       </c>
       <c r="L26" s="3">
+        <v>600</v>
+      </c>
+      <c r="M26" s="3">
         <v>2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>4300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E27" s="3">
         <v>8500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5200</v>
       </c>
       <c r="G27" s="3">
         <v>5200</v>
       </c>
       <c r="H27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>600</v>
       </c>
       <c r="K27" s="3">
         <v>600</v>
       </c>
       <c r="L27" s="3">
+        <v>600</v>
+      </c>
+      <c r="M27" s="3">
         <v>2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>4200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>2000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2532,8 +2593,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2547,20 +2608,20 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>1100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
+      <c r="AA29" s="3">
+        <v>0</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,52 +2819,55 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-300</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
       </c>
       <c r="H32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
@@ -2806,132 +2876,138 @@
         <v>-100</v>
       </c>
       <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
         <v>-4500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-300</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>100</v>
       </c>
       <c r="AD32" s="3">
         <v>100</v>
       </c>
       <c r="AE32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E33" s="3">
         <v>8500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>5200</v>
       </c>
       <c r="G33" s="3">
         <v>5200</v>
       </c>
       <c r="H33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>600</v>
       </c>
       <c r="K33" s="3">
         <v>600</v>
       </c>
       <c r="L33" s="3">
+        <v>600</v>
+      </c>
+      <c r="M33" s="3">
         <v>2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>4200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>2000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E35" s="3">
         <v>8500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>5200</v>
       </c>
       <c r="G35" s="3">
         <v>5200</v>
       </c>
       <c r="H35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>600</v>
       </c>
       <c r="K35" s="3">
         <v>600</v>
       </c>
       <c r="L35" s="3">
+        <v>600</v>
+      </c>
+      <c r="M35" s="3">
         <v>2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>4200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>2000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E41" s="3">
         <v>29700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>40900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>21900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>13600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>17600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>16000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3411,399 +3501,414 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>7100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>14300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>21900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>18100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>23600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>18700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>7400</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>5400</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E43" s="3">
         <v>57000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>57200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>53100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>51700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>43300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>46000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>43100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>39100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>38900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>39200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>34900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>41800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>35700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>36300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>35500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>35900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>38300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>39900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>33600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>32600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>32300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>32100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>32800</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>32000</v>
       </c>
       <c r="AC43" s="3">
         <v>32000</v>
       </c>
       <c r="AD43" s="3">
+        <v>32000</v>
+      </c>
+      <c r="AE43" s="3">
         <v>31000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E44" s="3">
         <v>36700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>37900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>40400</v>
       </c>
-      <c r="G44" s="3">
-        <v>35600</v>
-      </c>
       <c r="H44" s="3">
+        <v>40500</v>
+      </c>
+      <c r="I44" s="3">
         <v>35000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>29800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>28700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>23600</v>
       </c>
       <c r="L44" s="3">
         <v>23600</v>
       </c>
       <c r="M44" s="3">
+        <v>23600</v>
+      </c>
+      <c r="N44" s="3">
         <v>23700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>23500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>23900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>24100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>22700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>23800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>24200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>26700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>28100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>25400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>22500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>23400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>22600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>22800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>22600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>23800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>23200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>23600</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E45" s="3">
         <v>10700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7600</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>6200</v>
       </c>
       <c r="R45" s="3">
         <v>6200</v>
       </c>
       <c r="S45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="T45" s="3">
         <v>7800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>8000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>7600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>9000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>10000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>12600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>10100</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E46" s="3">
         <v>134100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>119600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>114300</v>
       </c>
-      <c r="G46" s="3">
-        <v>114700</v>
-      </c>
       <c r="H46" s="3">
+        <v>112100</v>
+      </c>
+      <c r="I46" s="3">
         <v>113700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>116800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>97500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>101900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>103900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>102800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>102300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>108400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>94100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>86200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>85500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>89300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>86800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>82300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>85200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>83000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>87100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>94200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>88900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>94200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>98100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>92800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>86000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>91200</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,105 +3996,111 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E48" s="3">
         <v>120600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>121100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>119700</v>
       </c>
-      <c r="G48" s="3">
-        <v>118500</v>
-      </c>
       <c r="H48" s="3">
+        <v>121000</v>
+      </c>
+      <c r="I48" s="3">
         <v>112200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>110400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>106900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>104600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>100300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>100400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>100300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>102800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>98500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>98400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>99200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>90800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>87100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>86200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>87300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>86700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>84800</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>84300</v>
       </c>
       <c r="Z48" s="3">
         <v>84300</v>
       </c>
       <c r="AA48" s="3">
+        <v>84300</v>
+      </c>
+      <c r="AB48" s="3">
         <v>84000</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>81500</v>
       </c>
       <c r="AC48" s="3">
         <v>81500</v>
       </c>
       <c r="AD48" s="3">
+        <v>81500</v>
+      </c>
+      <c r="AE48" s="3">
         <v>81700</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>298700</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5100</v>
-      </c>
-      <c r="E49" s="3">
-        <v>5200</v>
       </c>
       <c r="F49" s="3">
         <v>5200</v>
@@ -3998,79 +4109,82 @@
         <v>5200</v>
       </c>
       <c r="H49" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I49" s="3">
         <v>5300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>11400</v>
       </c>
       <c r="J49" s="3">
         <v>11400</v>
       </c>
       <c r="K49" s="3">
+        <v>11400</v>
+      </c>
+      <c r="L49" s="3">
         <v>11500</v>
-      </c>
-      <c r="L49" s="3">
-        <v>11600</v>
       </c>
       <c r="M49" s="3">
         <v>11600</v>
       </c>
       <c r="N49" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="O49" s="3">
         <v>11700</v>
       </c>
       <c r="P49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="Q49" s="3">
         <v>11900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12200</v>
-      </c>
-      <c r="S49" s="3">
-        <v>12300</v>
       </c>
       <c r="T49" s="3">
         <v>12300</v>
       </c>
       <c r="U49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="V49" s="3">
         <v>12400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>12600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>12700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>12800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>13000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>13300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>13400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>13600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>13800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>14100</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E52" s="3">
         <v>10600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>12200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>12200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>13300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>14000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>20500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>20900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>18800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>18500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>18300</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>286200</v>
+      </c>
+      <c r="E54" s="3">
         <v>270300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>256000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>249100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>249600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>241500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>247200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>223900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>227600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>229600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>228200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>227400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>235900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>216000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>209100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>209700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>205200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>198500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>193100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>197000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>194700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>198000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>205500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>206900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>212600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>212100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>206600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>200100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>204800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,97 +4710,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E57" s="3">
         <v>11900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>10100</v>
       </c>
       <c r="I57" s="3">
         <v>10100</v>
       </c>
       <c r="J57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K57" s="3">
         <v>10200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>7800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>8100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>7300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>6900</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4711,7 +4845,7 @@
         <v>1000</v>
       </c>
       <c r="P58" s="3">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="Q58" s="3">
         <v>3100</v>
@@ -4735,10 +4869,10 @@
         <v>3100</v>
       </c>
       <c r="X58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Y58" s="3">
         <v>9100</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>3100</v>
       </c>
       <c r="Z58" s="3">
         <v>3100</v>
@@ -4758,191 +4892,200 @@
       <c r="AE58" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E59" s="3">
         <v>39000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>37500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>30300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>26700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>32700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>27300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>20900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>19800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>20100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>19300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>21300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>18900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>22200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>16800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>20300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>21600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>19100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>17300</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E60" s="3">
         <v>51900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>49500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>45300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>48500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>41400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>38500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>39000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>46200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>40900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>33500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>30000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>32600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>31500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>31100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>35700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>30900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>35700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>33300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>27700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>33000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>32800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>29500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>27300</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>31800</v>
+        <v>30800</v>
       </c>
       <c r="E61" s="3">
         <v>31800</v>
@@ -4954,19 +5097,19 @@
         <v>31800</v>
       </c>
       <c r="H61" s="3">
-        <v>32800</v>
+        <v>31800</v>
       </c>
       <c r="I61" s="3">
         <v>32800</v>
       </c>
       <c r="J61" s="3">
-        <v>7900</v>
+        <v>32800</v>
       </c>
       <c r="K61" s="3">
         <v>7900</v>
       </c>
       <c r="L61" s="3">
-        <v>8900</v>
+        <v>7900</v>
       </c>
       <c r="M61" s="3">
         <v>8900</v>
@@ -4975,11 +5118,11 @@
         <v>8900</v>
       </c>
       <c r="O61" s="3">
+        <v>8900</v>
+      </c>
+      <c r="P61" s="3">
         <v>8800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4987,10 +5130,10 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>3100</v>
-      </c>
-      <c r="T61" s="3">
-        <v>3000</v>
       </c>
       <c r="U61" s="3">
         <v>3000</v>
@@ -4999,7 +5142,7 @@
         <v>3000</v>
       </c>
       <c r="W61" s="3">
-        <v>6100</v>
+        <v>3000</v>
       </c>
       <c r="X61" s="3">
         <v>6100</v>
@@ -5011,111 +5154,117 @@
         <v>6100</v>
       </c>
       <c r="AA61" s="3">
-        <v>9200</v>
+        <v>6100</v>
       </c>
       <c r="AB61" s="3">
         <v>9200</v>
       </c>
       <c r="AC61" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="AD61" s="3">
         <v>9100</v>
       </c>
       <c r="AE61" s="3">
+        <v>9100</v>
+      </c>
+      <c r="AF61" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E62" s="3">
         <v>19500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>31900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>32000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>33700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>32900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>28400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>28600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>41800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>34000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>26400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>26200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>26400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>25700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>27200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>39800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>45000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>44400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>47300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>47400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>46800</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E66" s="3">
         <v>102800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>98700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>94700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>98900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>95300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>93600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>67300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>76400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>75500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>76800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>87700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>69200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>62000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>71700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>69700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>60900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>60400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>65200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>62800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>69000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>79300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>78800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>86500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>89300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>86100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>83300</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>200800</v>
+      </c>
+      <c r="E72" s="3">
         <v>190800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>184100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>182100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>178800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>175400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>179300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>179200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>180400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>181700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>181300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>178800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>176600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>172500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>169600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>166500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>164800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>162700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>158800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>158200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>158900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>157900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>153600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>156200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>154700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>155000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>153200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>150500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>149900</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E76" s="3">
         <v>167500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>157400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>154400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>150700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>146100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>153600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>156600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>159500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>153200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>152700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>150500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>148100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>146800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>147100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>138000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>135600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>137600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>132800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>131800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>131900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>129000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>126300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>128100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>126000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>122800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>120500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>116800</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E81" s="3">
         <v>8500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>5200</v>
       </c>
       <c r="G81" s="3">
         <v>5200</v>
       </c>
       <c r="H81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>600</v>
       </c>
       <c r="K81" s="3">
         <v>600</v>
       </c>
       <c r="L81" s="3">
+        <v>600</v>
+      </c>
+      <c r="M81" s="3">
         <v>2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>4200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>2000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,43 +6807,44 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E83" s="3">
         <v>4100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3300</v>
       </c>
       <c r="I83" s="3">
         <v>3300</v>
       </c>
       <c r="J83" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K83" s="3">
         <v>3500</v>
       </c>
       <c r="L83" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="M83" s="3">
         <v>3600</v>
       </c>
       <c r="N83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="O83" s="3">
         <v>3500</v>
@@ -6654,25 +6853,25 @@
         <v>3500</v>
       </c>
       <c r="Q83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R83" s="3">
         <v>6900</v>
-      </c>
-      <c r="R83" s="3">
-        <v>3500</v>
       </c>
       <c r="S83" s="3">
         <v>3500</v>
       </c>
       <c r="T83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U83" s="3">
         <v>3300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3300</v>
-      </c>
-      <c r="W83" s="3">
-        <v>3200</v>
       </c>
       <c r="X83" s="3">
         <v>3200</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E89" s="3">
         <v>21900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
-      </c>
-      <c r="K89" s="3">
-        <v>5300</v>
       </c>
       <c r="L89" s="3">
         <v>5300</v>
       </c>
       <c r="M89" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N89" s="3">
         <v>6500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>12700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>9100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>5900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>11900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>7800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1300</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7500</v>
       </c>
-      <c r="G91" s="3">
-        <v>-6800</v>
-      </c>
       <c r="H91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-5400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-4300</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7500</v>
       </c>
-      <c r="G94" s="3">
-        <v>-6800</v>
-      </c>
       <c r="H94" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-5400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>5700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-9200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-14400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-5000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>500</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7669,19 +7903,19 @@
         <v>-1900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H96" s="3">
         <v>-1800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="J96" s="3">
         <v>-1900</v>
       </c>
       <c r="K96" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="L96" s="3">
         <v>-1800</v>
@@ -7693,28 +7927,28 @@
         <v>-1800</v>
       </c>
       <c r="O96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1800</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-1700</v>
       </c>
       <c r="T96" s="3">
         <v>-1700</v>
       </c>
       <c r="U96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="V96" s="3">
         <v>-3300</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-1600</v>
       </c>
       <c r="W96" s="3">
         <v>-1600</v>
@@ -7729,7 +7963,7 @@
         <v>-1600</v>
       </c>
       <c r="AA96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="AB96" s="3">
         <v>-1500</v>
@@ -7741,10 +7975,13 @@
         <v>-1500</v>
       </c>
       <c r="AE96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>19100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5300</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-1700</v>
       </c>
       <c r="T100" s="3">
         <v>-1700</v>
       </c>
       <c r="U100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="V100" s="3">
         <v>-6500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-7600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-4600</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8108,7 +8357,7 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -8126,155 +8375,161 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>200</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-100</v>
       </c>
       <c r="R101" s="3">
         <v>-100</v>
       </c>
       <c r="S101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T101" s="3">
         <v>100</v>
       </c>
       <c r="U101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
       <c r="W101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X101" s="3">
         <v>-100</v>
       </c>
       <c r="Y101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z101" s="3">
         <v>0</v>
       </c>
       <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
         <v>100</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
       <c r="AC101" s="3">
         <v>0</v>
       </c>
       <c r="AD101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>15800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-4500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-2600</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>1400</v>
       </c>
     </row>
